--- a/To Add v2/00 Things To Add.xlsx
+++ b/To Add v2/00 Things To Add.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Danakil_KiCad_DB\To Add v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215782B9-13BE-4687-886F-9994584AD85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D9F58-E80D-4E8C-AC6A-2D6DFDE88FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3470" yWindow="2200" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="218">
   <si>
     <t>Table Name</t>
   </si>
@@ -846,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,7 +921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AE151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1694,14 +1693,14 @@
       <c r="S12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T12" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U12" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V12" t="b">
-        <v>0</v>
+      <c r="T12" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
+        <v>184</v>
       </c>
       <c r="W12">
         <v>4</v>
@@ -2163,22 +2162,22 @@
       <c r="P18" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" s="30" t="b">
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
         <v>0</v>
       </c>
       <c r="S18" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="V18" s="30" t="b">
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+      <c r="V18" t="b">
         <v>0</v>
       </c>
       <c r="W18">
@@ -2666,7 +2665,7 @@
       <c r="I25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" t="s">
         <v>59</v>
       </c>
       <c r="P25" s="6" t="b">
@@ -8224,22 +8223,22 @@
       <c r="P103" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q103" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R103" s="30" t="b">
+      <c r="Q103" t="b">
+        <v>0</v>
+      </c>
+      <c r="R103" t="b">
         <v>0</v>
       </c>
       <c r="S103" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T103" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="U103" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="V103" s="30" t="b">
+      <c r="T103" t="b">
+        <v>0</v>
+      </c>
+      <c r="U103" t="b">
+        <v>0</v>
+      </c>
+      <c r="V103" t="b">
         <v>0</v>
       </c>
       <c r="W103">
@@ -8295,22 +8294,22 @@
       <c r="P104" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q104" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R104" s="30" t="b">
+      <c r="Q104" t="b">
+        <v>0</v>
+      </c>
+      <c r="R104" t="b">
         <v>0</v>
       </c>
       <c r="S104" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T104" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="U104" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="V104" s="30" t="b">
+      <c r="T104" t="b">
+        <v>0</v>
+      </c>
+      <c r="U104" t="b">
+        <v>0</v>
+      </c>
+      <c r="V104" t="b">
         <v>0</v>
       </c>
       <c r="W104">
@@ -8363,22 +8362,22 @@
       <c r="P105" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q105" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R105" s="30" t="b">
+      <c r="Q105" t="b">
+        <v>0</v>
+      </c>
+      <c r="R105" t="b">
         <v>0</v>
       </c>
       <c r="S105" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T105" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="U105" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="V105" s="30" t="b">
+      <c r="T105" t="b">
+        <v>0</v>
+      </c>
+      <c r="U105" t="b">
+        <v>0</v>
+      </c>
+      <c r="V105" t="b">
         <v>0</v>
       </c>
       <c r="W105">
@@ -8425,28 +8424,28 @@
       <c r="I106" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="J106" s="30" t="s">
+      <c r="J106" t="s">
         <v>215</v>
       </c>
       <c r="P106" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q106" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R106" s="30" t="b">
+      <c r="Q106" t="b">
+        <v>0</v>
+      </c>
+      <c r="R106" t="b">
         <v>0</v>
       </c>
       <c r="S106" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T106" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="U106" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="V106" s="30" t="b">
+      <c r="T106" t="b">
+        <v>0</v>
+      </c>
+      <c r="U106" t="b">
+        <v>0</v>
+      </c>
+      <c r="V106" t="b">
         <v>0</v>
       </c>
       <c r="W106">
@@ -8502,22 +8501,22 @@
       <c r="P107" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q107" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R107" s="30" t="b">
+      <c r="Q107" t="b">
+        <v>0</v>
+      </c>
+      <c r="R107" t="b">
         <v>0</v>
       </c>
       <c r="S107" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T107" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="U107" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="V107" s="30" t="b">
+      <c r="T107" t="b">
+        <v>0</v>
+      </c>
+      <c r="U107" t="b">
+        <v>0</v>
+      </c>
+      <c r="V107" t="b">
         <v>0</v>
       </c>
       <c r="W107">
@@ -8573,22 +8572,22 @@
       <c r="P108" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="Q108" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R108" s="30" t="b">
+      <c r="Q108" t="b">
+        <v>0</v>
+      </c>
+      <c r="R108" t="b">
         <v>0</v>
       </c>
       <c r="S108" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="T108" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="U108" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="V108" s="30" t="b">
+      <c r="T108" t="b">
+        <v>0</v>
+      </c>
+      <c r="U108" t="b">
+        <v>0</v>
+      </c>
+      <c r="V108" t="b">
         <v>0</v>
       </c>
       <c r="W108">
@@ -9141,10 +9140,10 @@
       <c r="S116" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T116" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U116" s="30" t="b">
+      <c r="T116" t="b">
+        <v>1</v>
+      </c>
+      <c r="U116" t="b">
         <v>1</v>
       </c>
       <c r="V116" t="b">
@@ -9546,22 +9545,22 @@
       <c r="P122" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q122" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R122" s="30" t="b">
+      <c r="Q122" t="b">
+        <v>1</v>
+      </c>
+      <c r="R122" t="b">
         <v>1</v>
       </c>
       <c r="S122" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T122" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U122" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V122" s="30" t="b">
+      <c r="T122" t="b">
+        <v>1</v>
+      </c>
+      <c r="U122" t="b">
+        <v>1</v>
+      </c>
+      <c r="V122" t="b">
         <v>1</v>
       </c>
       <c r="W122">
@@ -9614,22 +9613,22 @@
       <c r="P123" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q123" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R123" s="30" t="b">
+      <c r="Q123" t="b">
+        <v>1</v>
+      </c>
+      <c r="R123" t="b">
         <v>1</v>
       </c>
       <c r="S123" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T123" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U123" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V123" s="30" t="b">
+      <c r="T123" t="b">
+        <v>1</v>
+      </c>
+      <c r="U123" t="b">
+        <v>1</v>
+      </c>
+      <c r="V123" t="b">
         <v>1</v>
       </c>
       <c r="W123">
@@ -9682,22 +9681,22 @@
       <c r="P124" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q124" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R124" s="30" t="b">
+      <c r="Q124" t="b">
+        <v>1</v>
+      </c>
+      <c r="R124" t="b">
         <v>1</v>
       </c>
       <c r="S124" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T124" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U124" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V124" s="30" t="b">
+      <c r="T124" t="b">
+        <v>1</v>
+      </c>
+      <c r="U124" t="b">
+        <v>1</v>
+      </c>
+      <c r="V124" t="b">
         <v>1</v>
       </c>
       <c r="W124">
@@ -9969,22 +9968,22 @@
       <c r="P128" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q128" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R128" s="30" t="b">
+      <c r="Q128" t="b">
+        <v>1</v>
+      </c>
+      <c r="R128" t="b">
         <v>1</v>
       </c>
       <c r="S128" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T128" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U128" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V128" s="30" t="b">
+      <c r="T128" t="b">
+        <v>1</v>
+      </c>
+      <c r="U128" t="b">
+        <v>1</v>
+      </c>
+      <c r="V128" t="b">
         <v>1</v>
       </c>
       <c r="W128">
@@ -10043,22 +10042,22 @@
       <c r="P129" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q129" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R129" s="30" t="b">
+      <c r="Q129" t="b">
+        <v>1</v>
+      </c>
+      <c r="R129" t="b">
         <v>1</v>
       </c>
       <c r="S129" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T129" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U129" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V129" s="30" t="b">
+      <c r="T129" t="b">
+        <v>1</v>
+      </c>
+      <c r="U129" t="b">
+        <v>1</v>
+      </c>
+      <c r="V129" t="b">
         <v>1</v>
       </c>
       <c r="W129">
@@ -10114,22 +10113,22 @@
       <c r="P130" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q130" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R130" s="30" t="b">
+      <c r="Q130" t="b">
+        <v>1</v>
+      </c>
+      <c r="R130" t="b">
         <v>1</v>
       </c>
       <c r="S130" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T130" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U130" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V130" s="30" t="b">
+      <c r="T130" t="b">
+        <v>1</v>
+      </c>
+      <c r="U130" t="b">
+        <v>1</v>
+      </c>
+      <c r="V130" t="b">
         <v>1</v>
       </c>
       <c r="W130">
@@ -10185,22 +10184,22 @@
       <c r="P131" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q131" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R131" s="30" t="b">
+      <c r="Q131" t="b">
+        <v>1</v>
+      </c>
+      <c r="R131" t="b">
         <v>1</v>
       </c>
       <c r="S131" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T131" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U131" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V131" s="30" t="b">
+      <c r="T131" t="b">
+        <v>1</v>
+      </c>
+      <c r="U131" t="b">
+        <v>1</v>
+      </c>
+      <c r="V131" t="b">
         <v>1</v>
       </c>
       <c r="W131">
@@ -10250,22 +10249,22 @@
       <c r="P132" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q132" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R132" s="30" t="b">
+      <c r="Q132" t="b">
+        <v>1</v>
+      </c>
+      <c r="R132" t="b">
         <v>1</v>
       </c>
       <c r="S132" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T132" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U132" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V132" s="30" t="b">
+      <c r="T132" t="b">
+        <v>1</v>
+      </c>
+      <c r="U132" t="b">
+        <v>1</v>
+      </c>
+      <c r="V132" t="b">
         <v>1</v>
       </c>
       <c r="W132">
@@ -11217,7 +11216,7 @@
       <c r="I146" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="J146" s="30" t="s">
+      <c r="J146" t="s">
         <v>204</v>
       </c>
       <c r="P146" s="6" t="b">
@@ -11291,22 +11290,22 @@
       <c r="P147" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q147" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R147" s="30" t="b">
+      <c r="Q147" t="b">
+        <v>1</v>
+      </c>
+      <c r="R147" t="b">
         <v>1</v>
       </c>
       <c r="S147" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T147" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U147" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V147" s="30" t="b">
+      <c r="T147" t="b">
+        <v>1</v>
+      </c>
+      <c r="U147" t="b">
+        <v>1</v>
+      </c>
+      <c r="V147" t="b">
         <v>1</v>
       </c>
       <c r="W147">
@@ -11359,22 +11358,22 @@
       <c r="P148" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q148" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R148" s="30" t="b">
+      <c r="Q148" t="b">
+        <v>1</v>
+      </c>
+      <c r="R148" t="b">
         <v>1</v>
       </c>
       <c r="S148" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T148" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U148" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V148" s="30" t="b">
+      <c r="T148" t="b">
+        <v>1</v>
+      </c>
+      <c r="U148" t="b">
+        <v>1</v>
+      </c>
+      <c r="V148" t="b">
         <v>1</v>
       </c>
       <c r="W148">
@@ -11427,22 +11426,22 @@
       <c r="P149" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q149" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="R149" s="30" t="b">
+      <c r="Q149" t="b">
+        <v>1</v>
+      </c>
+      <c r="R149" t="b">
         <v>1</v>
       </c>
       <c r="S149" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T149" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U149" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V149" s="30" t="b">
+      <c r="T149" t="b">
+        <v>1</v>
+      </c>
+      <c r="U149" t="b">
+        <v>1</v>
+      </c>
+      <c r="V149" t="b">
         <v>1</v>
       </c>
       <c r="W149">
@@ -11572,10 +11571,10 @@
       <c r="S151" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T151" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="U151" s="30" t="b">
+      <c r="T151" t="b">
+        <v>1</v>
+      </c>
+      <c r="U151" t="b">
         <v>1</v>
       </c>
       <c r="V151" t="b">

--- a/To Add v2/00 Things To Add.xlsx
+++ b/To Add v2/00 Things To Add.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Danakil_KiCad_DB\To Add v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695D9F58-E80D-4E8C-AC6A-2D6DFDE88FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16277CF7-01D1-4491-9EAA-BD8E9F0B8096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3470" yWindow="2200" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="219">
   <si>
     <t>Table Name</t>
   </si>
@@ -712,6 +712,9 @@
   </si>
   <si>
     <t>Switching Regulator</t>
+  </si>
+  <si>
+    <t>Optoisolator</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -921,11 +924,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1030,29 +1063,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD6E292C-4D1E-49EA-9A61-3C83B907CF9E}" name="Table1" displayName="Table1" ref="H11:AE151" totalsRowShown="0">
-  <autoFilter ref="H11:AE151" xr:uid="{DD6E292C-4D1E-49EA-9A61-3C83B907CF9E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H12:AE151">
-    <sortCondition descending="1" ref="W11:W151"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD6E292C-4D1E-49EA-9A61-3C83B907CF9E}" name="Table1" displayName="Table1" ref="H11:AE152" totalsRowShown="0">
+  <autoFilter ref="H11:AE152" xr:uid="{DD6E292C-4D1E-49EA-9A61-3C83B907CF9E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H12:AE152">
+    <sortCondition descending="1" ref="W11:W152"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{24CA07BC-B564-425C-A1C9-824F8759E630}" name="Table Name"/>
-    <tableColumn id="2" xr3:uid="{9F4A02A6-F5DB-4F3A-A421-70A80F651F79}" name="Part 1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{9F4A02A6-F5DB-4F3A-A421-70A80F651F79}" name="Part 1" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00BD6BA4-1F12-4724-AE31-3694BB4C53B5}" name="Part 2"/>
     <tableColumn id="4" xr3:uid="{1CAAE1E4-7D4D-47D1-8B9A-27C7679E6199}" name="Part 3"/>
     <tableColumn id="5" xr3:uid="{037D0EDD-3927-40D7-AFD5-1044A7CAD438}" name="Part 4"/>
     <tableColumn id="6" xr3:uid="{48D64EC1-0CF4-4E4E-A6D0-E999EC133A13}" name="Part 5"/>
     <tableColumn id="7" xr3:uid="{DD2BE2A2-2EB3-44FA-8623-456D01EA63F6}" name="Part 6"/>
     <tableColumn id="8" xr3:uid="{40DC5E7D-06D0-4B47-8AE6-2C5D8310EC72}" name="Part 7"/>
-    <tableColumn id="9" xr3:uid="{FC0664F5-2F12-48A0-AAC9-0BCA6842B8AC}" name="Spreadsheet" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{FC0664F5-2F12-48A0-AAC9-0BCA6842B8AC}" name="Spreadsheet" dataDxfId="12"/>
     <tableColumn id="10" xr3:uid="{0317F941-13E4-4D2B-BEEE-7C26C454AD40}" name="SQL Database"/>
     <tableColumn id="11" xr3:uid="{8162CF8B-28D2-4781-897D-4EAD7F56A2E8}" name=".kicad_dbl"/>
-    <tableColumn id="28" xr3:uid="{71D029E6-3725-4F01-AFCF-D6BA4C6D42C1}" name="Spreadsheet " dataDxfId="7"/>
+    <tableColumn id="28" xr3:uid="{71D029E6-3725-4F01-AFCF-D6BA4C6D42C1}" name="Spreadsheet " dataDxfId="11"/>
     <tableColumn id="12" xr3:uid="{431C6373-8E7D-4666-BDE1-467A0F9E453B}" name="Symbol Library"/>
     <tableColumn id="13" xr3:uid="{2DA1FDCD-CF72-45A1-B1B4-6EF51DFD8E52}" name="Footprint Library"/>
     <tableColumn id="17" xr3:uid="{78B76DFF-BD9A-4D3C-AABA-D1B79F14BCCA}" name="Functionality Verified?"/>
     <tableColumn id="15" xr3:uid="{D1E24C39-AA98-4732-9662-847B76D8D595}" name="Priority"/>
-    <tableColumn id="16" xr3:uid="{FF2332B8-8FC6-47C4-8923-30A2E08CE14A}" name="Completion (%)" dataDxfId="6">
+    <tableColumn id="16" xr3:uid="{FF2332B8-8FC6-47C4-8923-30A2E08CE14A}" name="Completion (%)" dataDxfId="10">
       <calculatedColumnFormula>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{58412161-1BDA-44F7-B739-C52F8C666368}" name="Eff pt 1">
@@ -1344,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AE151"/>
+  <dimension ref="B1:AE152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1397,7 +1430,7 @@
       </c>
       <c r="E3" s="13">
         <f>COUNTA(H12:H10039)</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I3"/>
       <c r="P3"/>
@@ -1425,7 +1458,7 @@
       </c>
       <c r="E5" s="14">
         <f>COUNTIF(W12:W10040,"&gt;-1")</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
@@ -1433,31 +1466,31 @@
       <c r="I5"/>
       <c r="P5" s="8">
         <f t="shared" ref="P5:V5" si="0">100*COUNTIF(P12:P9999,"=TRUE")/COUNTA(P12:P9999)</f>
-        <v>37.857142857142854</v>
+        <v>37.588652482269502</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="0"/>
-        <v>37.857142857142854</v>
+        <v>37.588652482269502</v>
       </c>
       <c r="R5" s="8">
         <f t="shared" si="0"/>
-        <v>37.857142857142854</v>
+        <v>37.588652482269502</v>
       </c>
       <c r="S5" s="8">
         <f t="shared" si="0"/>
-        <v>41.428571428571431</v>
+        <v>41.134751773049643</v>
       </c>
       <c r="T5" s="8">
         <f t="shared" si="0"/>
-        <v>45.714285714285715</v>
+        <v>45.390070921985817</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" si="0"/>
-        <v>67.142857142857139</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="V5" s="8">
         <f t="shared" si="0"/>
-        <v>28.571428571428573</v>
+        <v>28.368794326241133</v>
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.35">
@@ -1485,7 +1518,7 @@
       </c>
       <c r="E7" s="15">
         <f>(COUNTIF(P12:V10039,"=TRUE")/COUNTA(P12:V10039))*100</f>
-        <v>42.346938775510203</v>
+        <v>42.046605876393109</v>
       </c>
       <c r="I7"/>
       <c r="P7"/>
@@ -1501,7 +1534,7 @@
       </c>
       <c r="E8" s="13">
         <f>P5</f>
-        <v>37.857142857142854</v>
+        <v>37.588652482269502</v>
       </c>
       <c r="I8"/>
       <c r="P8"/>
@@ -1518,7 +1551,7 @@
       </c>
       <c r="E9" s="14">
         <f>Q5</f>
-        <v>37.857142857142854</v>
+        <v>37.588652482269502</v>
       </c>
       <c r="I9"/>
       <c r="P9"/>
@@ -1543,7 +1576,7 @@
       </c>
       <c r="E10" s="15">
         <f>R5</f>
-        <v>37.857142857142854</v>
+        <v>37.588652482269502</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>8</v>
@@ -1586,7 +1619,7 @@
       </c>
       <c r="E11" s="13">
         <f>S5</f>
-        <v>41.428571428571431</v>
+        <v>41.134751773049643</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -1669,17 +1702,23 @@
       </c>
       <c r="E12" s="14">
         <f>T5</f>
-        <v>45.714285714285715</v>
+        <v>45.390070921985817</v>
       </c>
       <c r="H12" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Capacitors - Polarized</v>
+        <v>Clock&amp;Timing - Oscillators  - Fixed - Logic_Out</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" t="s">
+        <v>206</v>
       </c>
       <c r="P12" s="6" t="b">
         <v>1</v>
@@ -1703,7 +1742,7 @@
         <v>184</v>
       </c>
       <c r="W12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X12" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
@@ -1711,19 +1750,19 @@
       </c>
       <c r="Y12" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Capacitors - </v>
+        <v xml:space="preserve">Clock&amp;Timing - </v>
       </c>
       <c r="Z12" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Polarized</v>
+        <v xml:space="preserve">Oscillators  - </v>
       </c>
       <c r="AA12" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v xml:space="preserve">Fixed - </v>
       </c>
       <c r="AB12" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Logic_Out</v>
       </c>
       <c r="AC12" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -1746,23 +1785,17 @@
       </c>
       <c r="E13" s="15">
         <f>U5</f>
-        <v>67.142857142857139</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H13" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Clock&amp;Timing - Oscillators  - Fixed - Logic_Out</v>
+        <v>Connectors - Test Points</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="P13" s="6" t="b">
         <v>1</v>
@@ -1782,8 +1815,8 @@
       <c r="U13" t="b">
         <v>1</v>
       </c>
-      <c r="V13" t="s">
-        <v>184</v>
+      <c r="V13" t="b">
+        <v>0</v>
       </c>
       <c r="W13">
         <v>3</v>
@@ -1794,19 +1827,19 @@
       </c>
       <c r="Y13" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Clock&amp;Timing - </v>
+        <v xml:space="preserve">Connectors - </v>
       </c>
       <c r="Z13" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Oscillators  - </v>
+        <v>Test Points</v>
       </c>
       <c r="AA13" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Fixed - </v>
+        <v/>
       </c>
       <c r="AB13" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Logic_Out</v>
+        <v/>
       </c>
       <c r="AC13" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -1831,17 +1864,20 @@
       </c>
       <c r="E14" s="13">
         <f>COUNTIF(W12:W9999,"=0")</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Test Points</v>
+        <v>ICs - Analog - ADC</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>190</v>
+        <v>99</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
       </c>
       <c r="P14" s="6" t="b">
         <v>1</v>
@@ -1861,8 +1897,8 @@
       <c r="U14" t="b">
         <v>1</v>
       </c>
-      <c r="V14" t="b">
-        <v>0</v>
+      <c r="V14" t="s">
+        <v>184</v>
       </c>
       <c r="W14">
         <v>3</v>
@@ -1873,15 +1909,15 @@
       </c>
       <c r="Y14" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Connectors - </v>
+        <v xml:space="preserve">ICs - </v>
       </c>
       <c r="Z14" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Test Points</v>
+        <v xml:space="preserve">Analog - </v>
       </c>
       <c r="AA14" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>ADC</v>
       </c>
       <c r="AB14" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -1908,48 +1944,48 @@
       </c>
       <c r="E15" s="14">
         <f>COUNTIF(W12:W9999,"&gt;0")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H15" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Analog - ADC</v>
+        <v>ICs - Power - Switching Regulator</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="P15" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="b">
         <v>1</v>
       </c>
-      <c r="V15" t="s">
-        <v>184</v>
+      <c r="V15" t="b">
+        <v>0</v>
       </c>
       <c r="W15">
         <v>3</v>
       </c>
       <c r="X15" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>85.714285714285708</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y15" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -1957,11 +1993,11 @@
       </c>
       <c r="Z15" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Analog - </v>
+        <v xml:space="preserve">Power - </v>
       </c>
       <c r="AA15" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>ADC</v>
+        <v>Switching Regulator</v>
       </c>
       <c r="AB15" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -1987,60 +2023,60 @@
       </c>
       <c r="E16" s="14" cm="1">
         <f t="array" ref="E16">SUM(IF(W12:W9999 &gt; 0,X12:X9999,0))/COUNTIF(W12:W9999,"&gt;0")</f>
-        <v>63.265306122448976</v>
+        <v>41.269841269841265</v>
       </c>
       <c r="H16" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Power - Switching Regulator</v>
+        <v>Mechanical  - Standoffs  - SMD</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="P16" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="b">
         <v>1</v>
       </c>
-      <c r="V16" t="b">
-        <v>0</v>
+      <c r="V16" t="s">
+        <v>184</v>
       </c>
       <c r="W16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X16" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Y16" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">ICs - </v>
+        <v xml:space="preserve">Mechanical  - </v>
       </c>
       <c r="Z16" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Power - </v>
+        <v xml:space="preserve">Standoffs  - </v>
       </c>
       <c r="AA16" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Switching Regulator</v>
+        <v>SMD</v>
       </c>
       <c r="AB16" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -2066,60 +2102,57 @@
       </c>
       <c r="E17" s="14" cm="1">
         <f t="array" ref="E17">SUM(IF(W12:W9999 =E18,X12:X9999,0))/SUM(IF(W12:W9997 =E18,1,0))</f>
-        <v>85.714285714285708</v>
+        <v>67.857142857142847</v>
       </c>
       <c r="H17" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Mechanical  - Standoffs  - SMD</v>
+        <v>Isolators - Digital</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
-      </c>
-      <c r="K17" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="P17" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="b">
         <v>1</v>
       </c>
-      <c r="V17" t="s">
-        <v>184</v>
+      <c r="V17" t="b">
+        <v>0</v>
       </c>
       <c r="W17">
         <v>2</v>
       </c>
       <c r="X17" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>85.714285714285708</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y17" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Mechanical  - </v>
+        <v xml:space="preserve">Isolators - </v>
       </c>
       <c r="Z17" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Standoffs  - </v>
+        <v>Digital</v>
       </c>
       <c r="AA17" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>SMD</v>
+        <v/>
       </c>
       <c r="AB17" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -2144,20 +2177,23 @@
       </c>
       <c r="E18">
         <f>MAX(Table1[Priority])</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Sensors - Temperature - Digital</v>
+        <v>PSUs - PCB Mount - DC-DC - Isolated</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="L18" t="s">
+        <v>84</v>
       </c>
       <c r="P18" s="6" t="b">
         <v>0</v>
@@ -2181,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X18" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
@@ -2189,19 +2225,19 @@
       </c>
       <c r="Y18" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Sensors - </v>
+        <v xml:space="preserve">PSUs - </v>
       </c>
       <c r="Z18" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Temperature - </v>
+        <v xml:space="preserve">PCB Mount - </v>
       </c>
       <c r="AA18" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Digital</v>
+        <v xml:space="preserve">DC-DC - </v>
       </c>
       <c r="AB18" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Isolated</v>
       </c>
       <c r="AC18" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -2219,16 +2255,13 @@
     <row r="19" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H19" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Clock&amp;Timing - ICs - DDS</v>
+        <v>Isolators - Optoisolator</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="P19" s="6" t="b">
         <v>0</v>
@@ -2246,29 +2279,29 @@
         <v>0</v>
       </c>
       <c r="U19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Clock&amp;Timing - </v>
+        <v xml:space="preserve">Isolators - </v>
       </c>
       <c r="Z19" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">ICs - </v>
+        <v>Optoisolator</v>
       </c>
       <c r="AA19" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>DDS</v>
+        <v/>
       </c>
       <c r="AB19" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -2290,19 +2323,16 @@
     <row r="20" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H20" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Clock&amp;Timing - Oscillators  - Fixed - Ceramic Resonator</v>
+        <v>Sensors - Temperature - Digital</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>153</v>
+        <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="P20" s="6" t="b">
         <v>0</v>
@@ -2317,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="b">
         <v>0</v>
@@ -2326,27 +2356,27 @@
         <v>0</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Clock&amp;Timing - </v>
+        <v xml:space="preserve">Sensors - </v>
       </c>
       <c r="Z20" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Oscillators  - </v>
+        <v xml:space="preserve">Temperature - </v>
       </c>
       <c r="AA20" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Fixed - </v>
+        <v>Digital</v>
       </c>
       <c r="AB20" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Ceramic Resonator</v>
+        <v/>
       </c>
       <c r="AC20" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -2364,63 +2394,57 @@
     <row r="21" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H21" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Clock&amp;Timing - Oscillators  - Fixed - TCXO</v>
+        <v>Capacitors - Polarized</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>124</v>
-      </c>
-      <c r="K21" t="s">
-        <v>125</v>
-      </c>
-      <c r="L21" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="P21" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="b">
         <v>1</v>
       </c>
       <c r="U21" t="b">
-        <v>0</v>
-      </c>
-      <c r="V21" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>184</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Y21" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Clock&amp;Timing - </v>
+        <v xml:space="preserve">Capacitors - </v>
       </c>
       <c r="Z21" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Oscillators  - </v>
+        <v>Polarized</v>
       </c>
       <c r="AA21" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Fixed - </v>
+        <v/>
       </c>
       <c r="AB21" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>TCXO</v>
+        <v/>
       </c>
       <c r="AC21" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -2438,19 +2462,16 @@
     <row r="22" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H22" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Clock&amp;Timing - Oscillators  - VCOs - VCO</v>
+        <v>Clock&amp;Timing - ICs - DDS</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>153</v>
       </c>
       <c r="J22" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="P22" s="6" t="b">
         <v>0</v>
@@ -2465,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="b">
         <v>0</v>
@@ -2486,15 +2507,15 @@
       </c>
       <c r="Z22" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Oscillators  - </v>
+        <v xml:space="preserve">ICs - </v>
       </c>
       <c r="AA22" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">VCOs - </v>
+        <v>DDS</v>
       </c>
       <c r="AB22" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>VCO</v>
+        <v/>
       </c>
       <c r="AC22" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -2512,7 +2533,7 @@
     <row r="23" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H23" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Clock&amp;Timing - Oscillators  - VCOs - VCTCXO</v>
+        <v>Clock&amp;Timing - Oscillators  - Fixed - Ceramic Resonator</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>153</v>
@@ -2521,10 +2542,10 @@
         <v>124</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P23" s="6" t="b">
         <v>0</v>
@@ -2564,11 +2585,11 @@
       </c>
       <c r="AA23" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">VCOs - </v>
+        <v xml:space="preserve">Fixed - </v>
       </c>
       <c r="AB23" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>VCTCXO</v>
+        <v>Ceramic Resonator</v>
       </c>
       <c r="AC23" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -2586,7 +2607,7 @@
     <row r="24" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H24" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Clock&amp;Timing - Oscillators  - VCOs - VCXO</v>
+        <v>Clock&amp;Timing - Oscillators  - Fixed - TCXO</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>153</v>
@@ -2595,10 +2616,10 @@
         <v>124</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P24" s="6" t="b">
         <v>0</v>
@@ -2638,11 +2659,11 @@
       </c>
       <c r="AA24" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">VCOs - </v>
+        <v xml:space="preserve">Fixed - </v>
       </c>
       <c r="AB24" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>VCXO</v>
+        <v>TCXO</v>
       </c>
       <c r="AC24" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -2660,13 +2681,19 @@
     <row r="25" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H25" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Banana Jacks</v>
+        <v>Clock&amp;Timing - Oscillators  - VCOs - VCO</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" t="s">
-        <v>59</v>
+        <v>153</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" t="s">
+        <v>130</v>
       </c>
       <c r="P25" s="6" t="b">
         <v>0</v>
@@ -2681,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="5" t="b">
         <v>0</v>
@@ -2694,23 +2721,23 @@
       </c>
       <c r="X25" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y25" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Connectors - </v>
+        <v xml:space="preserve">Clock&amp;Timing - </v>
       </c>
       <c r="Z25" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Banana Jacks</v>
+        <v xml:space="preserve">Oscillators  - </v>
       </c>
       <c r="AA25" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v xml:space="preserve">VCOs - </v>
       </c>
       <c r="AB25" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>VCO</v>
       </c>
       <c r="AC25" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -2728,60 +2755,63 @@
     <row r="26" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H26" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Battery Holders - Coin Cell</v>
+        <v>Clock&amp;Timing - Oscillators  - VCOs - VCTCXO</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>129</v>
+      </c>
+      <c r="L26" t="s">
+        <v>132</v>
       </c>
       <c r="P26" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="T26" t="b">
-        <v>1</v>
-      </c>
-      <c r="U26" t="b">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
-        <v>184</v>
+        <v>0</v>
+      </c>
+      <c r="T26" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>85.714285714285708</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y26" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Connectors - </v>
+        <v xml:space="preserve">Clock&amp;Timing - </v>
       </c>
       <c r="Z26" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Battery Holders - </v>
+        <v xml:space="preserve">Oscillators  - </v>
       </c>
       <c r="AA26" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Coin Cell</v>
+        <v xml:space="preserve">VCOs - </v>
       </c>
       <c r="AB26" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>VCTCXO</v>
       </c>
       <c r="AC26" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -2799,16 +2829,19 @@
     <row r="27" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H27" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Battery Holders - Cylindrical</v>
+        <v>Clock&amp;Timing - Oscillators  - VCOs - VCXO</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>129</v>
+      </c>
+      <c r="L27" t="s">
+        <v>131</v>
       </c>
       <c r="P27" s="6" t="b">
         <v>0</v>
@@ -2823,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" t="b">
         <v>0</v>
@@ -2836,23 +2869,23 @@
       </c>
       <c r="X27" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y27" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Connectors - </v>
+        <v xml:space="preserve">Clock&amp;Timing - </v>
       </c>
       <c r="Z27" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Battery Holders - </v>
+        <v xml:space="preserve">Oscillators  - </v>
       </c>
       <c r="AA27" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Cylindrical</v>
+        <v xml:space="preserve">VCOs - </v>
       </c>
       <c r="AB27" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>VCXO</v>
       </c>
       <c r="AC27" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -2870,13 +2903,13 @@
     <row r="28" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H28" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Card Edge</v>
+        <v>Connectors - Banana Jacks</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P28" s="6" t="b">
         <v>0</v>
@@ -2912,7 +2945,7 @@
       </c>
       <c r="Z28" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Card Edge</v>
+        <v>Banana Jacks</v>
       </c>
       <c r="AA28" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -2938,13 +2971,16 @@
     <row r="29" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H29" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Coaxial</v>
+        <v>Connectors - Battery Holders - Coin Cell</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
       </c>
       <c r="P29" s="6" t="b">
         <v>1</v>
@@ -2964,8 +3000,8 @@
       <c r="U29" t="b">
         <v>1</v>
       </c>
-      <c r="V29" t="b">
-        <v>0</v>
+      <c r="V29" t="s">
+        <v>184</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -2980,11 +3016,11 @@
       </c>
       <c r="Z29" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Coaxial</v>
+        <v xml:space="preserve">Battery Holders - </v>
       </c>
       <c r="AA29" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>Coin Cell</v>
       </c>
       <c r="AB29" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -3006,16 +3042,16 @@
     <row r="30" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H30" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - D-Sub - Backshells</v>
+        <v>Connectors - Battery Holders - Cylindrical</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="K30" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="P30" s="6" t="b">
         <v>0</v>
@@ -3051,11 +3087,11 @@
       </c>
       <c r="Z30" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">D-Sub - </v>
+        <v xml:space="preserve">Battery Holders - </v>
       </c>
       <c r="AA30" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Backshells</v>
+        <v>Cylindrical</v>
       </c>
       <c r="AB30" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -3077,22 +3113,13 @@
     <row r="31" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H31" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - D-Sub - Hybrid - Female - Inline</v>
+        <v>Connectors - Card Edge</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K31" t="s">
-        <v>64</v>
-      </c>
-      <c r="L31" t="s">
-        <v>68</v>
-      </c>
-      <c r="M31" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P31" s="6" t="b">
         <v>0</v>
@@ -3128,19 +3155,19 @@
       </c>
       <c r="Z31" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">D-Sub - </v>
+        <v>Card Edge</v>
       </c>
       <c r="AA31" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Hybrid - </v>
+        <v/>
       </c>
       <c r="AB31" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v xml:space="preserve">Female - </v>
+        <v/>
       </c>
       <c r="AC31" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
-        <v>Inline</v>
+        <v/>
       </c>
       <c r="AD31" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
@@ -3154,40 +3181,31 @@
     <row r="32" spans="3:31" x14ac:dyDescent="0.35">
       <c r="H32" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - D-Sub - Hybrid - Male - Inline</v>
+        <v>Connectors - Coaxial</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J32" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="P32" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" t="b">
         <v>0</v>
@@ -3197,7 +3215,7 @@
       </c>
       <c r="X32" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Y32" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -3205,19 +3223,19 @@
       </c>
       <c r="Z32" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">D-Sub - </v>
+        <v>Coaxial</v>
       </c>
       <c r="AA32" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Hybrid - </v>
+        <v/>
       </c>
       <c r="AB32" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v xml:space="preserve">Male - </v>
+        <v/>
       </c>
       <c r="AC32" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
-        <v>Inline</v>
+        <v/>
       </c>
       <c r="AD32" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
@@ -3231,7 +3249,7 @@
     <row r="33" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H33" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - D-Sub - Standard - Female - Inline</v>
+        <v>Connectors - D-Sub - Backshells</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>34</v>
@@ -3240,13 +3258,7 @@
         <v>66</v>
       </c>
       <c r="K33" t="s">
-        <v>63</v>
-      </c>
-      <c r="L33" t="s">
-        <v>68</v>
-      </c>
-      <c r="M33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P33" s="6" t="b">
         <v>0</v>
@@ -3286,15 +3298,15 @@
       </c>
       <c r="AA33" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Standard - </v>
+        <v>Backshells</v>
       </c>
       <c r="AB33" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v xml:space="preserve">Female - </v>
+        <v/>
       </c>
       <c r="AC33" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
-        <v>Inline</v>
+        <v/>
       </c>
       <c r="AD33" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
@@ -3308,7 +3320,7 @@
     <row r="34" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H34" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - D-Sub - Standard - Female - PCB Mount</v>
+        <v>Connectors - D-Sub - Hybrid - Female - Inline</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>34</v>
@@ -3317,13 +3329,13 @@
         <v>66</v>
       </c>
       <c r="K34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L34" t="s">
         <v>68</v>
       </c>
       <c r="M34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P34" s="6" t="b">
         <v>0</v>
@@ -3363,7 +3375,7 @@
       </c>
       <c r="AA34" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Standard - </v>
+        <v xml:space="preserve">Hybrid - </v>
       </c>
       <c r="AB34" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -3371,7 +3383,7 @@
       </c>
       <c r="AC34" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
-        <v>PCB Mount</v>
+        <v>Inline</v>
       </c>
       <c r="AD34" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
@@ -3385,7 +3397,7 @@
     <row r="35" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H35" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - D-Sub - Standard - Male - Inline</v>
+        <v>Connectors - D-Sub - Hybrid - Male - Inline</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>34</v>
@@ -3394,7 +3406,7 @@
         <v>66</v>
       </c>
       <c r="K35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L35" t="s">
         <v>67</v>
@@ -3440,7 +3452,7 @@
       </c>
       <c r="AA35" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Standard - </v>
+        <v xml:space="preserve">Hybrid - </v>
       </c>
       <c r="AB35" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -3462,7 +3474,7 @@
     <row r="36" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H36" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - D-Sub - Standard - Male - PCB Mount</v>
+        <v>Connectors - D-Sub - Standard - Female - Inline</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>34</v>
@@ -3474,10 +3486,10 @@
         <v>63</v>
       </c>
       <c r="L36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P36" s="6" t="b">
         <v>0</v>
@@ -3521,11 +3533,11 @@
       </c>
       <c r="AB36" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v xml:space="preserve">Male - </v>
+        <v xml:space="preserve">Female - </v>
       </c>
       <c r="AC36" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
-        <v>PCB Mount</v>
+        <v>Inline</v>
       </c>
       <c r="AD36" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
@@ -3539,13 +3551,22 @@
     <row r="37" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H37" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Flat Flex</v>
+        <v>Connectors - D-Sub - Standard - Female - PCB Mount</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J37" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="K37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L37" t="s">
+        <v>68</v>
+      </c>
+      <c r="M37" t="s">
+        <v>69</v>
       </c>
       <c r="P37" s="6" t="b">
         <v>0</v>
@@ -3557,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="S37" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="b">
         <v>0</v>
@@ -3573,7 +3594,7 @@
       </c>
       <c r="X37" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -3581,19 +3602,19 @@
       </c>
       <c r="Z37" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Flat Flex</v>
+        <v xml:space="preserve">D-Sub - </v>
       </c>
       <c r="AA37" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v xml:space="preserve">Standard - </v>
       </c>
       <c r="AB37" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v xml:space="preserve">Female - </v>
       </c>
       <c r="AC37" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
-        <v/>
+        <v>PCB Mount</v>
       </c>
       <c r="AD37" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
@@ -3607,13 +3628,22 @@
     <row r="38" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H38" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Jumpers</v>
+        <v>Connectors - D-Sub - Standard - Male - Inline</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J38" t="s">
-        <v>188</v>
+        <v>66</v>
+      </c>
+      <c r="K38" t="s">
+        <v>63</v>
+      </c>
+      <c r="L38" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" t="s">
+        <v>70</v>
       </c>
       <c r="P38" s="6" t="b">
         <v>0</v>
@@ -3649,19 +3679,19 @@
       </c>
       <c r="Z38" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Jumpers</v>
+        <v xml:space="preserve">D-Sub - </v>
       </c>
       <c r="AA38" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v xml:space="preserve">Standard - </v>
       </c>
       <c r="AB38" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v xml:space="preserve">Male - </v>
       </c>
       <c r="AC38" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
-        <v/>
+        <v>Inline</v>
       </c>
       <c r="AD38" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
@@ -3675,13 +3705,22 @@
     <row r="39" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H39" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Power Entry Modules</v>
+        <v>Connectors - D-Sub - Standard - Male - PCB Mount</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J39" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="K39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L39" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" t="s">
+        <v>69</v>
       </c>
       <c r="P39" s="6" t="b">
         <v>0</v>
@@ -3717,19 +3756,19 @@
       </c>
       <c r="Z39" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Power Entry Modules</v>
+        <v xml:space="preserve">D-Sub - </v>
       </c>
       <c r="AA39" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v xml:space="preserve">Standard - </v>
       </c>
       <c r="AB39" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v xml:space="preserve">Male - </v>
       </c>
       <c r="AC39" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
-        <v/>
+        <v>PCB Mount</v>
       </c>
       <c r="AD39" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
@@ -3743,13 +3782,13 @@
     <row r="40" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H40" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Screw Connectors</v>
+        <v>Connectors - Flat Flex</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J40" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P40" s="6" t="b">
         <v>0</v>
@@ -3761,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="S40" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="b">
         <v>0</v>
@@ -3777,7 +3816,7 @@
       </c>
       <c r="X40" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y40" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -3785,7 +3824,7 @@
       </c>
       <c r="Z40" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Screw Connectors</v>
+        <v>Flat Flex</v>
       </c>
       <c r="AA40" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -3811,41 +3850,41 @@
     <row r="41" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H41" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - SD Card Socket</v>
+        <v>Connectors - Jumpers</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J41" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="P41" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" t="b">
-        <v>1</v>
-      </c>
-      <c r="V41" t="s">
-        <v>184</v>
+        <v>0</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>85.714285714285708</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -3853,7 +3892,7 @@
       </c>
       <c r="Z41" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>SD Card Socket</v>
+        <v>Jumpers</v>
       </c>
       <c r="AA41" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -3879,44 +3918,41 @@
     <row r="42" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H42" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Terminal Blocks - Wire to Board</v>
+        <v>Connectors - Power Entry Modules</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J42" t="s">
-        <v>61</v>
-      </c>
-      <c r="K42" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="P42" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="b">
-        <v>1</v>
-      </c>
-      <c r="V42" t="s">
-        <v>184</v>
+        <v>0</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
       </c>
       <c r="W42">
         <v>0</v>
       </c>
       <c r="X42" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>85.714285714285708</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -3924,11 +3960,11 @@
       </c>
       <c r="Z42" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Terminal Blocks - </v>
+        <v>Power Entry Modules</v>
       </c>
       <c r="AA42" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Wire to Board</v>
+        <v/>
       </c>
       <c r="AB42" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -3950,13 +3986,13 @@
     <row r="43" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H43" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Contacts - Banana Plugs</v>
+        <v>Connectors - Screw Connectors</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P43" s="6" t="b">
         <v>0</v>
@@ -3988,11 +4024,11 @@
       </c>
       <c r="Y43" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Contacts - </v>
+        <v xml:space="preserve">Connectors - </v>
       </c>
       <c r="Z43" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Banana Plugs</v>
+        <v>Screw Connectors</v>
       </c>
       <c r="AA43" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -4018,49 +4054,49 @@
     <row r="44" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H44" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Contacts - Ferrules</v>
+        <v>Connectors - SD Card Socket</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J44" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="P44" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="b">
-        <v>0</v>
-      </c>
-      <c r="V44" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V44" t="s">
+        <v>184</v>
       </c>
       <c r="W44">
         <v>0</v>
       </c>
       <c r="X44" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Y44" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Contacts - </v>
+        <v xml:space="preserve">Connectors - </v>
       </c>
       <c r="Z44" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Ferrules</v>
+        <v>SD Card Socket</v>
       </c>
       <c r="AA44" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -4086,53 +4122,56 @@
     <row r="45" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H45" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Contacts - Ring Terminals</v>
+        <v>Connectors - Terminal Blocks - Wire to Board</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J45" t="s">
-        <v>77</v>
+        <v>61</v>
+      </c>
+      <c r="K45" t="s">
+        <v>216</v>
       </c>
       <c r="P45" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="b">
-        <v>0</v>
-      </c>
-      <c r="V45" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
+        <v>184</v>
       </c>
       <c r="W45">
         <v>0</v>
       </c>
       <c r="X45" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Y45" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Contacts - </v>
+        <v xml:space="preserve">Connectors - </v>
       </c>
       <c r="Z45" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Ring Terminals</v>
+        <v xml:space="preserve">Terminal Blocks - </v>
       </c>
       <c r="AA45" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>Wire to Board</v>
       </c>
       <c r="AB45" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -4154,16 +4193,13 @@
     <row r="46" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H46" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Discreet - Diodes - Standard</v>
+        <v>Contacts - Banana Plugs</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J46" t="s">
-        <v>90</v>
-      </c>
-      <c r="K46" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P46" s="6" t="b">
         <v>0</v>
@@ -4178,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V46" t="b">
         <v>0</v>
@@ -4191,19 +4227,19 @@
       </c>
       <c r="X46" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>28.571428571428569</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Discreet - </v>
+        <v xml:space="preserve">Contacts - </v>
       </c>
       <c r="Z46" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Diodes - </v>
+        <v>Banana Plugs</v>
       </c>
       <c r="AA46" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Standard</v>
+        <v/>
       </c>
       <c r="AB46" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -4225,19 +4261,13 @@
     <row r="47" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H47" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Discreet - Transistors - BJT - PNP</v>
+        <v>Contacts - Ferrules</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J47" t="s">
-        <v>195</v>
-      </c>
-      <c r="K47" t="s">
-        <v>92</v>
-      </c>
-      <c r="L47" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="P47" s="6" t="b">
         <v>0</v>
@@ -4255,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="U47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" t="b">
         <v>0</v>
@@ -4265,23 +4295,23 @@
       </c>
       <c r="X47" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Discreet - </v>
+        <v xml:space="preserve">Contacts - </v>
       </c>
       <c r="Z47" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Transistors - </v>
+        <v>Ferrules</v>
       </c>
       <c r="AA47" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">BJT - </v>
+        <v/>
       </c>
       <c r="AB47" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>PNP</v>
+        <v/>
       </c>
       <c r="AC47" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -4299,16 +4329,13 @@
     <row r="48" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H48" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Discreet - Transistors - GaNFET</v>
+        <v>Contacts - Ring Terminals</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s">
-        <v>195</v>
-      </c>
-      <c r="K48" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="P48" s="6" t="b">
         <v>0</v>
@@ -4323,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="T48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="b">
         <v>0</v>
@@ -4336,19 +4363,19 @@
       </c>
       <c r="X48" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Discreet - </v>
+        <v xml:space="preserve">Contacts - </v>
       </c>
       <c r="Z48" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Transistors - </v>
+        <v>Ring Terminals</v>
       </c>
       <c r="AA48" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>GaNFET</v>
+        <v/>
       </c>
       <c r="AB48" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -4370,16 +4397,16 @@
     <row r="49" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H49" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Discreet - Transistors - JFET</v>
+        <v>Discreet - Diodes - Standard</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J49" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="P49" s="6" t="b">
         <v>0</v>
@@ -4397,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="U49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" t="b">
         <v>0</v>
@@ -4407,7 +4434,7 @@
       </c>
       <c r="X49" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="Y49" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -4415,11 +4442,11 @@
       </c>
       <c r="Z49" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Transistors - </v>
+        <v xml:space="preserve">Diodes - </v>
       </c>
       <c r="AA49" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>JFET</v>
+        <v>Standard</v>
       </c>
       <c r="AB49" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -4441,7 +4468,7 @@
     <row r="50" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H50" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Discreet - Transistors - MOSFET</v>
+        <v>Discreet - Transistors - BJT - PNP</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>89</v>
@@ -4450,22 +4477,25 @@
         <v>195</v>
       </c>
       <c r="K50" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="L50" t="s">
+        <v>202</v>
       </c>
       <c r="P50" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50" t="b">
         <v>1</v>
@@ -4478,7 +4508,7 @@
       </c>
       <c r="X50" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>85.714285714285708</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y50" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -4490,11 +4520,11 @@
       </c>
       <c r="AA50" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>MOSFET</v>
+        <v xml:space="preserve">BJT - </v>
       </c>
       <c r="AB50" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>PNP</v>
       </c>
       <c r="AC50" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -4512,7 +4542,7 @@
     <row r="51" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H51" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Discreet - Transistors - SiCFET</v>
+        <v>Discreet - Transistors - GaNFET</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>89</v>
@@ -4521,7 +4551,7 @@
         <v>195</v>
       </c>
       <c r="K51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P51" s="6" t="b">
         <v>0</v>
@@ -4561,7 +4591,7 @@
       </c>
       <c r="AA51" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>SiCFET</v>
+        <v>GaNFET</v>
       </c>
       <c r="AB51" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -4583,16 +4613,16 @@
     <row r="52" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H52" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Analog - Comparator</v>
+        <v>Discreet - Transistors - JFET</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="K52" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="P52" s="6" t="b">
         <v>0</v>
@@ -4607,10 +4637,10 @@
         <v>0</v>
       </c>
       <c r="T52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V52" t="b">
         <v>0</v>
@@ -4624,15 +4654,15 @@
       </c>
       <c r="Y52" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">ICs - </v>
+        <v xml:space="preserve">Discreet - </v>
       </c>
       <c r="Z52" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Analog - </v>
+        <v xml:space="preserve">Transistors - </v>
       </c>
       <c r="AA52" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Comparator</v>
+        <v>JFET</v>
       </c>
       <c r="AB52" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -4654,31 +4684,31 @@
     <row r="53" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H53" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Analog - DAC</v>
+        <v>Discreet - Transistors - MOSFET</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="K53" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="P53" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U53" t="b">
         <v>1</v>
@@ -4691,19 +4721,19 @@
       </c>
       <c r="X53" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Y53" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">ICs - </v>
+        <v xml:space="preserve">Discreet - </v>
       </c>
       <c r="Z53" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Analog - </v>
+        <v xml:space="preserve">Transistors - </v>
       </c>
       <c r="AA53" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>DAC</v>
+        <v>MOSFET</v>
       </c>
       <c r="AB53" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -4725,19 +4755,19 @@
     <row r="54" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H54" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Embedded - FPGA</v>
+        <v>Discreet - Transistors - SiCFET</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="K54" t="s">
-        <v>108</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>184</v>
+        <v>95</v>
+      </c>
+      <c r="P54" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="Q54" t="b">
         <v>0</v>
@@ -4746,13 +4776,13 @@
         <v>0</v>
       </c>
       <c r="S54" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" t="b">
         <v>0</v>
@@ -4762,19 +4792,19 @@
       </c>
       <c r="X54" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>28.571428571428569</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y54" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">ICs - </v>
+        <v xml:space="preserve">Discreet - </v>
       </c>
       <c r="Z54" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Embedded - </v>
+        <v xml:space="preserve">Transistors - </v>
       </c>
       <c r="AA54" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>FPGA</v>
+        <v>SiCFET</v>
       </c>
       <c r="AB54" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -4796,19 +4826,16 @@
     <row r="55" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H55" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Embedded - PolarFire - SOC</v>
+        <v>ICs - Analog - Comparator</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s">
-        <v>109</v>
-      </c>
-      <c r="L55" t="s">
-        <v>183</v>
+        <v>116</v>
       </c>
       <c r="P55" s="6" t="b">
         <v>0</v>
@@ -4844,15 +4871,15 @@
       </c>
       <c r="Z55" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Embedded - </v>
+        <v xml:space="preserve">Analog - </v>
       </c>
       <c r="AA55" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">PolarFire - </v>
+        <v>Comparator</v>
       </c>
       <c r="AB55" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>SOC</v>
+        <v/>
       </c>
       <c r="AC55" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -4870,16 +4897,16 @@
     <row r="56" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H56" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Interface  - Analog Switch</v>
+        <v>ICs - Analog - DAC</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J56" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="K56" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="P56" s="6" t="b">
         <v>0</v>
@@ -4915,11 +4942,11 @@
       </c>
       <c r="Z56" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Interface  - </v>
+        <v xml:space="preserve">Analog - </v>
       </c>
       <c r="AA56" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Analog Switch</v>
+        <v>DAC</v>
       </c>
       <c r="AB56" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -4941,19 +4968,19 @@
     <row r="57" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H57" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Interface  - Controller</v>
+        <v>ICs - Embedded - FPGA</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J57" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K57" t="s">
-        <v>161</v>
-      </c>
-      <c r="P57" s="6" t="b">
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="Q57" t="b">
         <v>0</v>
@@ -4962,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="S57" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="b">
         <v>0</v>
@@ -4978,7 +5005,7 @@
       </c>
       <c r="X57" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="Y57" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -4986,11 +5013,11 @@
       </c>
       <c r="Z57" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Interface  - </v>
+        <v xml:space="preserve">Embedded - </v>
       </c>
       <c r="AA57" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Controller</v>
+        <v>FPGA</v>
       </c>
       <c r="AB57" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -5012,16 +5039,19 @@
     <row r="58" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H58" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Interface  - Deserializer</v>
+        <v>ICs - Embedded - PolarFire - SOC</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J58" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K58" t="s">
-        <v>160</v>
+        <v>109</v>
+      </c>
+      <c r="L58" t="s">
+        <v>183</v>
       </c>
       <c r="P58" s="6" t="b">
         <v>0</v>
@@ -5057,15 +5087,15 @@
       </c>
       <c r="Z58" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Interface  - </v>
+        <v xml:space="preserve">Embedded - </v>
       </c>
       <c r="AA58" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Deserializer</v>
+        <v xml:space="preserve">PolarFire - </v>
       </c>
       <c r="AB58" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>SOC</v>
       </c>
       <c r="AC58" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -5083,7 +5113,7 @@
     <row r="59" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H59" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Interface  - Drivers</v>
+        <v>ICs - Interface  - Analog Switch</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>100</v>
@@ -5092,7 +5122,7 @@
         <v>119</v>
       </c>
       <c r="K59" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="P59" s="6" t="b">
         <v>0</v>
@@ -5132,7 +5162,7 @@
       </c>
       <c r="AA59" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Drivers</v>
+        <v>Analog Switch</v>
       </c>
       <c r="AB59" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -5154,7 +5184,7 @@
     <row r="60" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H60" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Interface  - IO Expander</v>
+        <v>ICs - Interface  - Controller</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>100</v>
@@ -5163,7 +5193,7 @@
         <v>119</v>
       </c>
       <c r="K60" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P60" s="6" t="b">
         <v>0</v>
@@ -5203,7 +5233,7 @@
       </c>
       <c r="AA60" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>IO Expander</v>
+        <v>Controller</v>
       </c>
       <c r="AB60" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -5225,7 +5255,7 @@
     <row r="61" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H61" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Interface  - Recievers</v>
+        <v>ICs - Interface  - Deserializer</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>100</v>
@@ -5234,7 +5264,7 @@
         <v>119</v>
       </c>
       <c r="K61" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="P61" s="6" t="b">
         <v>0</v>
@@ -5274,7 +5304,7 @@
       </c>
       <c r="AA61" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Recievers</v>
+        <v>Deserializer</v>
       </c>
       <c r="AB61" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -5296,7 +5326,7 @@
     <row r="62" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H62" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Interface  - Serializer</v>
+        <v>ICs - Interface  - Drivers</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>100</v>
@@ -5305,7 +5335,7 @@
         <v>119</v>
       </c>
       <c r="K62" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="P62" s="6" t="b">
         <v>0</v>
@@ -5345,7 +5375,7 @@
       </c>
       <c r="AA62" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Serializer</v>
+        <v>Drivers</v>
       </c>
       <c r="AB62" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -5367,7 +5397,7 @@
     <row r="63" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H63" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Interface  - Trancievers</v>
+        <v>ICs - Interface  - IO Expander</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>100</v>
@@ -5376,7 +5406,7 @@
         <v>119</v>
       </c>
       <c r="K63" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="P63" s="6" t="b">
         <v>0</v>
@@ -5416,7 +5446,7 @@
       </c>
       <c r="AA63" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Trancievers</v>
+        <v>IO Expander</v>
       </c>
       <c r="AB63" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -5438,7 +5468,7 @@
     <row r="64" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H64" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Interface  - UART</v>
+        <v>ICs - Interface  - Recievers</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>100</v>
@@ -5447,7 +5477,7 @@
         <v>119</v>
       </c>
       <c r="K64" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="P64" s="6" t="b">
         <v>0</v>
@@ -5487,7 +5517,7 @@
       </c>
       <c r="AA64" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>UART</v>
+        <v>Recievers</v>
       </c>
       <c r="AB64" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -5509,19 +5539,16 @@
     <row r="65" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H65" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Comparator - Digital</v>
+        <v>ICs - Interface  - Serializer</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K65" t="s">
-        <v>116</v>
-      </c>
-      <c r="L65" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="P65" s="6" t="b">
         <v>0</v>
@@ -5557,15 +5584,15 @@
       </c>
       <c r="Z65" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Logic - </v>
+        <v xml:space="preserve">Interface  - </v>
       </c>
       <c r="AA65" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Comparator - </v>
+        <v>Serializer</v>
       </c>
       <c r="AB65" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Digital</v>
+        <v/>
       </c>
       <c r="AC65" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -5583,19 +5610,16 @@
     <row r="66" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H66" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Counter - Up</v>
+        <v>ICs - Interface  - Trancievers</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K66" t="s">
-        <v>163</v>
-      </c>
-      <c r="L66" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="P66" s="6" t="b">
         <v>0</v>
@@ -5631,15 +5655,15 @@
       </c>
       <c r="Z66" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Logic - </v>
+        <v xml:space="preserve">Interface  - </v>
       </c>
       <c r="AA66" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Counter - </v>
+        <v>Trancievers</v>
       </c>
       <c r="AB66" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Up</v>
+        <v/>
       </c>
       <c r="AC66" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -5657,19 +5681,16 @@
     <row r="67" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H67" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Counter - Up&amp;Down</v>
+        <v>ICs - Interface  - UART</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J67" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
-      </c>
-      <c r="L67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P67" s="6" t="b">
         <v>0</v>
@@ -5705,15 +5726,15 @@
       </c>
       <c r="Z67" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Logic - </v>
+        <v xml:space="preserve">Interface  - </v>
       </c>
       <c r="AA67" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Counter - </v>
+        <v>UART</v>
       </c>
       <c r="AB67" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Up&amp;Down</v>
+        <v/>
       </c>
       <c r="AC67" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -5731,7 +5752,7 @@
     <row r="68" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H68" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Demultiplexer - Digital</v>
+        <v>ICs - Logic - Comparator - Digital</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>100</v>
@@ -5740,7 +5761,7 @@
         <v>118</v>
       </c>
       <c r="K68" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="L68" t="s">
         <v>98</v>
@@ -5783,7 +5804,7 @@
       </c>
       <c r="AA68" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Demultiplexer - </v>
+        <v xml:space="preserve">Comparator - </v>
       </c>
       <c r="AB68" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -5805,7 +5826,7 @@
     <row r="69" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H69" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Flip Flops</v>
+        <v>ICs - Logic - Counter - Up</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>100</v>
@@ -5814,7 +5835,10 @@
         <v>118</v>
       </c>
       <c r="K69" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="L69" t="s">
+        <v>164</v>
       </c>
       <c r="P69" s="6" t="b">
         <v>0</v>
@@ -5854,11 +5878,11 @@
       </c>
       <c r="AA69" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Flip Flops</v>
+        <v xml:space="preserve">Counter - </v>
       </c>
       <c r="AB69" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Up</v>
       </c>
       <c r="AC69" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -5876,7 +5900,7 @@
     <row r="70" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H70" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Gates</v>
+        <v>ICs - Logic - Counter - Up&amp;Down</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>100</v>
@@ -5885,7 +5909,10 @@
         <v>118</v>
       </c>
       <c r="K70" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="L70" t="s">
+        <v>165</v>
       </c>
       <c r="P70" s="6" t="b">
         <v>0</v>
@@ -5925,11 +5952,11 @@
       </c>
       <c r="AA70" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Gates</v>
+        <v xml:space="preserve">Counter - </v>
       </c>
       <c r="AB70" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Up&amp;Down</v>
       </c>
       <c r="AC70" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -5947,7 +5974,7 @@
     <row r="71" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H71" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Latches</v>
+        <v>ICs - Logic - Demultiplexer - Digital</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>100</v>
@@ -5956,7 +5983,10 @@
         <v>118</v>
       </c>
       <c r="K71" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="L71" t="s">
+        <v>98</v>
       </c>
       <c r="P71" s="6" t="b">
         <v>0</v>
@@ -5996,11 +6026,11 @@
       </c>
       <c r="AA71" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Latches</v>
+        <v xml:space="preserve">Demultiplexer - </v>
       </c>
       <c r="AB71" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Digital</v>
       </c>
       <c r="AC71" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6018,7 +6048,7 @@
     <row r="72" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H72" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Level Shifters</v>
+        <v>ICs - Logic - Flip Flops</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>100</v>
@@ -6027,7 +6057,7 @@
         <v>118</v>
       </c>
       <c r="K72" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="P72" s="6" t="b">
         <v>0</v>
@@ -6039,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="S72" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" t="b">
         <v>0</v>
@@ -6055,7 +6085,7 @@
       </c>
       <c r="X72" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>28.571428571428569</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y72" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -6067,7 +6097,7 @@
       </c>
       <c r="AA72" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Level Shifters</v>
+        <v>Flip Flops</v>
       </c>
       <c r="AB72" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -6089,7 +6119,7 @@
     <row r="73" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H73" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Multiplexer - Digital</v>
+        <v>ICs - Logic - Gates</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>100</v>
@@ -6098,10 +6128,7 @@
         <v>118</v>
       </c>
       <c r="K73" t="s">
-        <v>174</v>
-      </c>
-      <c r="L73" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="P73" s="6" t="b">
         <v>0</v>
@@ -6141,11 +6168,11 @@
       </c>
       <c r="AA73" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Multiplexer - </v>
+        <v>Gates</v>
       </c>
       <c r="AB73" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Digital</v>
+        <v/>
       </c>
       <c r="AC73" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6163,7 +6190,7 @@
     <row r="74" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H74" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Multivibrators</v>
+        <v>ICs - Logic - Latches</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>100</v>
@@ -6172,7 +6199,7 @@
         <v>118</v>
       </c>
       <c r="K74" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P74" s="6" t="b">
         <v>0</v>
@@ -6212,7 +6239,7 @@
       </c>
       <c r="AA74" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Multivibrators</v>
+        <v>Latches</v>
       </c>
       <c r="AB74" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -6234,7 +6261,7 @@
     <row r="75" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H75" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Shift Registers - PISO</v>
+        <v>ICs - Logic - Level Shifters</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>100</v>
@@ -6243,10 +6270,7 @@
         <v>118</v>
       </c>
       <c r="K75" t="s">
-        <v>170</v>
-      </c>
-      <c r="L75" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="P75" s="6" t="b">
         <v>0</v>
@@ -6258,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="S75" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="b">
         <v>0</v>
@@ -6274,7 +6298,7 @@
       </c>
       <c r="X75" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="Y75" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -6286,11 +6310,11 @@
       </c>
       <c r="AA75" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Shift Registers - </v>
+        <v>Level Shifters</v>
       </c>
       <c r="AB75" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>PISO</v>
+        <v/>
       </c>
       <c r="AC75" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6308,7 +6332,7 @@
     <row r="76" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H76" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Shift Registers - SIPO</v>
+        <v>ICs - Logic - Multiplexer - Digital</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>100</v>
@@ -6317,10 +6341,10 @@
         <v>118</v>
       </c>
       <c r="K76" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L76" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="P76" s="6" t="b">
         <v>0</v>
@@ -6360,11 +6384,11 @@
       </c>
       <c r="AA76" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Shift Registers - </v>
+        <v xml:space="preserve">Multiplexer - </v>
       </c>
       <c r="AB76" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>SIPO</v>
+        <v>Digital</v>
       </c>
       <c r="AC76" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6382,7 +6406,7 @@
     <row r="77" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H77" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Switch - Digital</v>
+        <v>ICs - Logic - Multivibrators</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>100</v>
@@ -6391,10 +6415,7 @@
         <v>118</v>
       </c>
       <c r="K77" t="s">
-        <v>173</v>
-      </c>
-      <c r="L77" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="P77" s="6" t="b">
         <v>0</v>
@@ -6434,11 +6455,11 @@
       </c>
       <c r="AA77" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Switch - </v>
+        <v>Multivibrators</v>
       </c>
       <c r="AB77" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Digital</v>
+        <v/>
       </c>
       <c r="AC77" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6456,7 +6477,7 @@
     <row r="78" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H78" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Logic - Translators</v>
+        <v>ICs - Logic - Shift Registers - PISO</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>100</v>
@@ -6465,7 +6486,10 @@
         <v>118</v>
       </c>
       <c r="K78" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+      <c r="L78" t="s">
+        <v>172</v>
       </c>
       <c r="P78" s="6" t="b">
         <v>0</v>
@@ -6505,11 +6529,11 @@
       </c>
       <c r="AA78" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Translators</v>
+        <v xml:space="preserve">Shift Registers - </v>
       </c>
       <c r="AB78" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>PISO</v>
       </c>
       <c r="AC78" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6527,16 +6551,19 @@
     <row r="79" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H79" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Memory - DRAM</v>
+        <v>ICs - Logic - Shift Registers - SIPO</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J79" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K79" t="s">
-        <v>113</v>
+        <v>170</v>
+      </c>
+      <c r="L79" t="s">
+        <v>171</v>
       </c>
       <c r="P79" s="6" t="b">
         <v>0</v>
@@ -6572,15 +6599,15 @@
       </c>
       <c r="Z79" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Memory - </v>
+        <v xml:space="preserve">Logic - </v>
       </c>
       <c r="AA79" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>DRAM</v>
+        <v xml:space="preserve">Shift Registers - </v>
       </c>
       <c r="AB79" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>SIPO</v>
       </c>
       <c r="AC79" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6598,44 +6625,47 @@
     <row r="80" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H80" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Memory - EEPROM</v>
+        <v>ICs - Logic - Switch - Digital</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J80" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K80" t="s">
-        <v>111</v>
+        <v>173</v>
+      </c>
+      <c r="L80" t="s">
+        <v>98</v>
       </c>
       <c r="P80" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S80" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U80" t="b">
         <v>1</v>
       </c>
-      <c r="V80" t="s">
-        <v>184</v>
+      <c r="V80" t="b">
+        <v>0</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
       <c r="X80" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>85.714285714285708</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y80" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -6643,15 +6673,15 @@
       </c>
       <c r="Z80" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Memory - </v>
+        <v xml:space="preserve">Logic - </v>
       </c>
       <c r="AA80" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>EEPROM</v>
+        <v xml:space="preserve">Switch - </v>
       </c>
       <c r="AB80" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Digital</v>
       </c>
       <c r="AC80" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6669,44 +6699,44 @@
     <row r="81" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H81" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Memory - FLASH</v>
+        <v>ICs - Logic - Translators</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J81" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K81" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="P81" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S81" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U81" t="b">
         <v>1</v>
       </c>
-      <c r="V81" t="s">
-        <v>184</v>
+      <c r="V81" t="b">
+        <v>0</v>
       </c>
       <c r="W81">
         <v>0</v>
       </c>
       <c r="X81" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>85.714285714285708</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y81" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -6714,11 +6744,11 @@
       </c>
       <c r="Z81" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Memory - </v>
+        <v xml:space="preserve">Logic - </v>
       </c>
       <c r="AA81" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>FLASH</v>
+        <v>Translators</v>
       </c>
       <c r="AB81" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -6740,7 +6770,7 @@
     <row r="82" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H82" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Memory - SD Card</v>
+        <v>ICs - Memory - DRAM</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>100</v>
@@ -6749,7 +6779,7 @@
         <v>110</v>
       </c>
       <c r="K82" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P82" s="6" t="b">
         <v>0</v>
@@ -6789,7 +6819,7 @@
       </c>
       <c r="AA82" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>SD Card</v>
+        <v>DRAM</v>
       </c>
       <c r="AB82" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -6811,47 +6841,44 @@
     <row r="83" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H83" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Power - Gate Driver - Isolated</v>
+        <v>ICs - Memory - EEPROM</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J83" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="K83" t="s">
-        <v>101</v>
-      </c>
-      <c r="L83" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="P83" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S83" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" t="b">
         <v>1</v>
       </c>
-      <c r="V83" t="b">
-        <v>0</v>
+      <c r="V83" t="s">
+        <v>184</v>
       </c>
       <c r="W83">
         <v>0</v>
       </c>
       <c r="X83" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Y83" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -6859,15 +6886,15 @@
       </c>
       <c r="Z83" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Power - </v>
+        <v xml:space="preserve">Memory - </v>
       </c>
       <c r="AA83" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Gate Driver - </v>
+        <v>EEPROM</v>
       </c>
       <c r="AB83" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Isolated</v>
+        <v/>
       </c>
       <c r="AC83" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6885,47 +6912,44 @@
     <row r="84" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H84" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Power - Gate Driver - Non Isolated</v>
+        <v>ICs - Memory - FLASH</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J84" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="K84" t="s">
-        <v>101</v>
-      </c>
-      <c r="L84" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="P84" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" t="b">
         <v>1</v>
       </c>
-      <c r="V84" t="b">
-        <v>0</v>
+      <c r="V84" t="s">
+        <v>184</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
       <c r="X84" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Y84" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -6933,15 +6957,15 @@
       </c>
       <c r="Z84" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Power - </v>
+        <v xml:space="preserve">Memory - </v>
       </c>
       <c r="AA84" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Gate Driver - </v>
+        <v>FLASH</v>
       </c>
       <c r="AB84" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Non Isolated</v>
+        <v/>
       </c>
       <c r="AC84" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -6959,16 +6983,16 @@
     <row r="85" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H85" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Power - Half&amp;H Bridge</v>
+        <v>ICs - Memory - SD Card</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J85" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="K85" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="P85" s="6" t="b">
         <v>0</v>
@@ -7004,11 +7028,11 @@
       </c>
       <c r="Z85" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Power - </v>
+        <v xml:space="preserve">Memory - </v>
       </c>
       <c r="AA85" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Half&amp;H Bridge</v>
+        <v>SD Card</v>
       </c>
       <c r="AB85" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -7030,7 +7054,7 @@
     <row r="86" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H86" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Power - Supply Sequencing</v>
+        <v>ICs - Power - Gate Driver - Isolated</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>100</v>
@@ -7039,7 +7063,10 @@
         <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>200</v>
+        <v>101</v>
+      </c>
+      <c r="L86" t="s">
+        <v>84</v>
       </c>
       <c r="P86" s="6" t="b">
         <v>0</v>
@@ -7057,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="U86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V86" t="b">
         <v>0</v>
@@ -7067,7 +7094,7 @@
       </c>
       <c r="X86" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y86" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -7079,11 +7106,11 @@
       </c>
       <c r="AA86" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Supply Sequencing</v>
+        <v xml:space="preserve">Gate Driver - </v>
       </c>
       <c r="AB86" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Isolated</v>
       </c>
       <c r="AC86" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -7101,7 +7128,7 @@
     <row r="87" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H87" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Power - Switching Controler</v>
+        <v>ICs - Power - Gate Driver - Non Isolated</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>100</v>
@@ -7110,7 +7137,10 @@
         <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="L87" t="s">
+        <v>102</v>
       </c>
       <c r="P87" s="6" t="b">
         <v>0</v>
@@ -7150,11 +7180,11 @@
       </c>
       <c r="AA87" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Switching Controler</v>
+        <v xml:space="preserve">Gate Driver - </v>
       </c>
       <c r="AB87" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Non Isolated</v>
       </c>
       <c r="AC87" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -7172,41 +7202,44 @@
     <row r="88" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H88" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - RTCs</v>
+        <v>ICs - Power - Half&amp;H Bridge</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J88" t="s">
-        <v>210</v>
+        <v>88</v>
+      </c>
+      <c r="K88" t="s">
+        <v>139</v>
       </c>
       <c r="P88" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" t="b">
         <v>1</v>
       </c>
-      <c r="V88" t="s">
-        <v>184</v>
+      <c r="V88" t="b">
+        <v>0</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
       <c r="X88" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>85.714285714285708</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y88" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -7214,11 +7247,11 @@
       </c>
       <c r="Z88" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>RTCs</v>
+        <v xml:space="preserve">Power - </v>
       </c>
       <c r="AA88" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>Half&amp;H Bridge</v>
       </c>
       <c r="AB88" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -7240,13 +7273,16 @@
     <row r="89" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H89" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Inductors - Common Mode Choke</v>
+        <v>ICs - Power - Supply Sequencing</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="J89" t="s">
-        <v>80</v>
+        <v>88</v>
+      </c>
+      <c r="K89" t="s">
+        <v>200</v>
       </c>
       <c r="P89" s="6" t="b">
         <v>0</v>
@@ -7278,15 +7314,15 @@
       </c>
       <c r="Y89" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Inductors - </v>
+        <v xml:space="preserve">ICs - </v>
       </c>
       <c r="Z89" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Common Mode Choke</v>
+        <v xml:space="preserve">Power - </v>
       </c>
       <c r="AA89" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>Supply Sequencing</v>
       </c>
       <c r="AB89" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -7308,13 +7344,16 @@
     <row r="90" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H90" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Isolators - Analog</v>
+        <v>ICs - Power - Switching Controler</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J90" t="s">
-        <v>99</v>
+        <v>88</v>
+      </c>
+      <c r="K90" t="s">
+        <v>104</v>
       </c>
       <c r="P90" s="6" t="b">
         <v>0</v>
@@ -7346,15 +7385,15 @@
       </c>
       <c r="Y90" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Isolators - </v>
+        <v xml:space="preserve">ICs - </v>
       </c>
       <c r="Z90" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Analog</v>
+        <v xml:space="preserve">Power - </v>
       </c>
       <c r="AA90" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>Switching Controler</v>
       </c>
       <c r="AB90" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -7376,49 +7415,49 @@
     <row r="91" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H91" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Isolators - Digital</v>
+        <v>ICs - RTCs</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J91" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="P91" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S91" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U91" t="b">
         <v>1</v>
       </c>
-      <c r="V91" t="b">
-        <v>0</v>
+      <c r="V91" t="s">
+        <v>184</v>
       </c>
       <c r="W91">
         <v>0</v>
       </c>
       <c r="X91" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>14.285714285714285</v>
+        <v>85.714285714285708</v>
       </c>
       <c r="Y91" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Isolators - </v>
+        <v xml:space="preserve">ICs - </v>
       </c>
       <c r="Z91" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Digital</v>
+        <v>RTCs</v>
       </c>
       <c r="AA91" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -7444,13 +7483,13 @@
     <row r="92" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H92" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>LEDs - RGB</v>
+        <v>Inductors - Common Mode Choke</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="J92" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="P92" s="6" t="b">
         <v>0</v>
@@ -7465,10 +7504,10 @@
         <v>0</v>
       </c>
       <c r="T92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V92" t="b">
         <v>0</v>
@@ -7478,15 +7517,15 @@
       </c>
       <c r="X92" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>28.571428571428569</v>
+        <v>0</v>
       </c>
       <c r="Y92" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">LEDs - </v>
+        <v xml:space="preserve">Inductors - </v>
       </c>
       <c r="Z92" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>RGB</v>
+        <v>Common Mode Choke</v>
       </c>
       <c r="AA92" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -7512,13 +7551,13 @@
     <row r="93" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H93" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Mechanical  - Heat Shrink</v>
+        <v>Isolators - Analog</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="J93" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="P93" s="6" t="b">
         <v>0</v>
@@ -7530,13 +7569,13 @@
         <v>0</v>
       </c>
       <c r="S93" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93" t="b">
         <v>0</v>
       </c>
       <c r="U93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93" t="b">
         <v>0</v>
@@ -7550,11 +7589,11 @@
       </c>
       <c r="Y93" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Mechanical  - </v>
+        <v xml:space="preserve">Isolators - </v>
       </c>
       <c r="Z93" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Heat Shrink</v>
+        <v>Analog</v>
       </c>
       <c r="AA93" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -7580,13 +7619,13 @@
     <row r="94" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H94" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Mechanical  - Nuts</v>
+        <v>LEDs - RGB</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="J94" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="P94" s="6" t="b">
         <v>0</v>
@@ -7601,10 +7640,10 @@
         <v>0</v>
       </c>
       <c r="T94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V94" t="b">
         <v>0</v>
@@ -7614,15 +7653,15 @@
       </c>
       <c r="X94" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="Y94" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Mechanical  - </v>
+        <v xml:space="preserve">LEDs - </v>
       </c>
       <c r="Z94" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Nuts</v>
+        <v>RGB</v>
       </c>
       <c r="AA94" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -7648,13 +7687,13 @@
     <row r="95" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H95" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Mechanical  - Spacers</v>
+        <v>Mechanical  - Heat Shrink</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>133</v>
       </c>
       <c r="J95" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P95" s="6" t="b">
         <v>0</v>
@@ -7666,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="S95" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" t="b">
         <v>0</v>
@@ -7682,7 +7721,7 @@
       </c>
       <c r="X95" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>14.285714285714285</v>
       </c>
       <c r="Y95" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -7690,7 +7729,7 @@
       </c>
       <c r="Z95" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Spacers</v>
+        <v>Heat Shrink</v>
       </c>
       <c r="AA95" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -7716,16 +7755,13 @@
     <row r="96" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H96" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Mechanical  - Standoffs  - F_F</v>
+        <v>Mechanical  - Nuts</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>133</v>
       </c>
       <c r="J96" t="s">
-        <v>134</v>
-      </c>
-      <c r="K96" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P96" s="6" t="b">
         <v>0</v>
@@ -7761,11 +7797,11 @@
       </c>
       <c r="Z96" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Standoffs  - </v>
+        <v>Nuts</v>
       </c>
       <c r="AA96" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>F_F</v>
+        <v/>
       </c>
       <c r="AB96" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -7787,16 +7823,13 @@
     <row r="97" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H97" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Mechanical  - Standoffs  - M_F</v>
+        <v>Mechanical  - Spacers</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>133</v>
       </c>
       <c r="J97" t="s">
-        <v>134</v>
-      </c>
-      <c r="K97" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P97" s="6" t="b">
         <v>0</v>
@@ -7832,11 +7865,11 @@
       </c>
       <c r="Z97" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Standoffs  - </v>
+        <v>Spacers</v>
       </c>
       <c r="AA97" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>M_F</v>
+        <v/>
       </c>
       <c r="AB97" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -7858,13 +7891,16 @@
     <row r="98" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H98" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Protection - PolyFuses</v>
+        <v>Mechanical  - Standoffs  - F_F</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="J98" t="s">
-        <v>180</v>
+        <v>134</v>
+      </c>
+      <c r="K98" t="s">
+        <v>142</v>
       </c>
       <c r="P98" s="6" t="b">
         <v>0</v>
@@ -7876,13 +7912,13 @@
         <v>0</v>
       </c>
       <c r="S98" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V98" t="b">
         <v>0</v>
@@ -7892,19 +7928,19 @@
       </c>
       <c r="X98" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>42.857142857142854</v>
+        <v>0</v>
       </c>
       <c r="Y98" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Protection - </v>
+        <v xml:space="preserve">Mechanical  - </v>
       </c>
       <c r="Z98" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>PolyFuses</v>
+        <v xml:space="preserve">Standoffs  - </v>
       </c>
       <c r="AA98" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>F_F</v>
       </c>
       <c r="AB98" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -7926,16 +7962,16 @@
     <row r="99" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H99" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>PSUs - Chasis Mount - AC-DC</v>
+        <v>Mechanical  - Standoffs  - M_F</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="J99" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="K99" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="P99" s="6" t="b">
         <v>0</v>
@@ -7967,15 +8003,15 @@
       </c>
       <c r="Y99" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">PSUs - </v>
+        <v xml:space="preserve">Mechanical  - </v>
       </c>
       <c r="Z99" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Chasis Mount - </v>
+        <v xml:space="preserve">Standoffs  - </v>
       </c>
       <c r="AA99" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>AC-DC</v>
+        <v>M_F</v>
       </c>
       <c r="AB99" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -7997,16 +8033,13 @@
     <row r="100" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H100" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>PSUs - Chasis Mount - DC-DC</v>
+        <v>Protection - PolyFuses</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J100" t="s">
-        <v>86</v>
-      </c>
-      <c r="K100" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="P100" s="6" t="b">
         <v>0</v>
@@ -8018,13 +8051,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V100" t="b">
         <v>0</v>
@@ -8034,19 +8067,19 @@
       </c>
       <c r="X100" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="Y100" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">PSUs - </v>
+        <v xml:space="preserve">Protection - </v>
       </c>
       <c r="Z100" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Chasis Mount - </v>
+        <v>PolyFuses</v>
       </c>
       <c r="AA100" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>DC-DC</v>
+        <v/>
       </c>
       <c r="AB100" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -8068,13 +8101,13 @@
     <row r="101" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H101" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>PSUs - PCB Mount - AC-DC</v>
+        <v>PSUs - Chasis Mount - AC-DC</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>81</v>
       </c>
       <c r="J101" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="K101" t="s">
         <v>82</v>
@@ -8104,7 +8137,8 @@
         <v>0</v>
       </c>
       <c r="X101" s="6">
-        <v>5</v>
+        <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
+        <v>0</v>
       </c>
       <c r="Y101" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
@@ -8112,7 +8146,7 @@
       </c>
       <c r="Z101" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">PCB Mount - </v>
+        <v xml:space="preserve">Chasis Mount - </v>
       </c>
       <c r="AA101" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -8138,20 +8172,17 @@
     <row r="102" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H102" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>PSUs - PCB Mount - DC-DC - Isolated</v>
+        <v>PSUs - Chasis Mount - DC-DC</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>81</v>
       </c>
       <c r="J102" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="K102" t="s">
         <v>83</v>
       </c>
-      <c r="L102" t="s">
-        <v>84</v>
-      </c>
       <c r="P102" s="6" t="b">
         <v>0</v>
       </c>
@@ -8186,15 +8217,15 @@
       </c>
       <c r="Z102" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">PCB Mount - </v>
+        <v xml:space="preserve">Chasis Mount - </v>
       </c>
       <c r="AA102" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">DC-DC - </v>
+        <v>DC-DC</v>
       </c>
       <c r="AB102" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Isolated</v>
+        <v/>
       </c>
       <c r="AC102" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -8212,13 +8243,16 @@
     <row r="103" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H103" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Resistors - Network</v>
+        <v>PSUs - PCB Mount - AC-DC</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="K103" t="s">
+        <v>82</v>
       </c>
       <c r="P103" s="6" t="b">
         <v>0</v>
@@ -8245,20 +8279,19 @@
         <v>0</v>
       </c>
       <c r="X103" s="6">
-        <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y103" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Resistors - </v>
+        <v xml:space="preserve">PSUs - </v>
       </c>
       <c r="Z103" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Network</v>
+        <v xml:space="preserve">PCB Mount - </v>
       </c>
       <c r="AA103" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>AC-DC</v>
       </c>
       <c r="AB103" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -8280,16 +8313,13 @@
     <row r="104" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H104" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Resistors - Single - Through Hole</v>
+        <v>Resistors - Network</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P104" s="6" t="b">
         <v>0</v>
@@ -8325,11 +8355,11 @@
       </c>
       <c r="Z104" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Single - </v>
+        <v>Network</v>
       </c>
       <c r="AA104" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Through Hole</v>
+        <v/>
       </c>
       <c r="AB104" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -8351,13 +8381,16 @@
     <row r="105" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H105" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Sensors - Capacitance To Digital</v>
+        <v>Resistors - Single - Through Hole</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
       <c r="J105" t="s">
-        <v>212</v>
+        <v>43</v>
+      </c>
+      <c r="K105" t="s">
+        <v>52</v>
       </c>
       <c r="P105" s="6" t="b">
         <v>0</v>
@@ -8389,15 +8422,15 @@
       </c>
       <c r="Y105" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Sensors - </v>
+        <v xml:space="preserve">Resistors - </v>
       </c>
       <c r="Z105" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Capacitance To Digital</v>
+        <v xml:space="preserve">Single - </v>
       </c>
       <c r="AA105" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>Through Hole</v>
       </c>
       <c r="AB105" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -8419,13 +8452,13 @@
     <row r="106" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H106" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Sensors - Humidity</v>
+        <v>Sensors - Capacitance To Digital</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>211</v>
       </c>
       <c r="J106" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P106" s="6" t="b">
         <v>0</v>
@@ -8461,7 +8494,7 @@
       </c>
       <c r="Z106" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Humidity</v>
+        <v>Capacitance To Digital</v>
       </c>
       <c r="AA106" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -8487,16 +8520,13 @@
     <row r="107" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H107" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Sensors - Temperature - RTDs</v>
+        <v>Sensors - Humidity</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>211</v>
       </c>
       <c r="J107" t="s">
-        <v>213</v>
-      </c>
-      <c r="K107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P107" s="6" t="b">
         <v>0</v>
@@ -8532,11 +8562,11 @@
       </c>
       <c r="Z107" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Temperature - </v>
+        <v>Humidity</v>
       </c>
       <c r="AA107" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>RTDs</v>
+        <v/>
       </c>
       <c r="AB107" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -8558,16 +8588,16 @@
     <row r="108" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H108" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Sensors - Touch Sensor - Capacitive</v>
+        <v>Sensors - Temperature - RTDs</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>211</v>
       </c>
       <c r="J108" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="K108" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="P108" s="6" t="b">
         <v>0</v>
@@ -8603,11 +8633,11 @@
       </c>
       <c r="Z108" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Touch Sensor - </v>
+        <v xml:space="preserve">Temperature - </v>
       </c>
       <c r="AA108" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Capacitive</v>
+        <v>RTDs</v>
       </c>
       <c r="AB108" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -8629,16 +8659,16 @@
     <row r="109" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H109" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Transformer - Power - Chasis Mount</v>
+        <v>Sensors - Touch Sensor - Capacitive</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="J109" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="K109" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="P109" s="6" t="b">
         <v>0</v>
@@ -8670,15 +8700,15 @@
       </c>
       <c r="Y109" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Transformer - </v>
+        <v xml:space="preserve">Sensors - </v>
       </c>
       <c r="Z109" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Power - </v>
+        <v xml:space="preserve">Touch Sensor - </v>
       </c>
       <c r="AA109" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Chasis Mount</v>
+        <v>Capacitive</v>
       </c>
       <c r="AB109" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -8700,7 +8730,7 @@
     <row r="110" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H110" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Transformer - Power - PCB Mount</v>
+        <v>Transformer - Power - Chasis Mount</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>87</v>
@@ -8709,7 +8739,7 @@
         <v>88</v>
       </c>
       <c r="K110" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="P110" s="6" t="b">
         <v>0</v>
@@ -8749,7 +8779,7 @@
       </c>
       <c r="AA110" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>PCB Mount</v>
+        <v>Chasis Mount</v>
       </c>
       <c r="AB110" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -8771,13 +8801,16 @@
     <row r="111" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H111" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Voltage References - Misc</v>
+        <v>Transformer - Power - PCB Mount</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="J111" t="s">
-        <v>187</v>
+        <v>88</v>
+      </c>
+      <c r="K111" t="s">
+        <v>69</v>
       </c>
       <c r="P111" s="6" t="b">
         <v>0</v>
@@ -8809,15 +8842,15 @@
       </c>
       <c r="Y111" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Voltage References - </v>
+        <v xml:space="preserve">Transformer - </v>
       </c>
       <c r="Z111" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Misc</v>
+        <v xml:space="preserve">Power - </v>
       </c>
       <c r="AA111" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>PCB Mount</v>
       </c>
       <c r="AB111" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -8839,49 +8872,49 @@
     <row r="112" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H112" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Cables - Premade</v>
+        <v>Voltage References - Misc</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
       <c r="J112" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="P112" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S112" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X112" s="6">
         <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y112" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Cables - </v>
+        <v xml:space="preserve">Voltage References - </v>
       </c>
       <c r="Z112" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Premade</v>
+        <v>Misc</v>
       </c>
       <c r="AA112" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -8907,13 +8940,13 @@
     <row r="113" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H113" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Capacitors - Unpolarized</v>
+        <v>Cables - Premade</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P113" s="6" t="b">
         <v>1</v>
@@ -8945,11 +8978,11 @@
       </c>
       <c r="Y113" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Capacitors - </v>
+        <v xml:space="preserve">Cables - </v>
       </c>
       <c r="Z113" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Unpolarized</v>
+        <v>Premade</v>
       </c>
       <c r="AA113" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -8975,16 +9008,13 @@
     <row r="114" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H114" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Clock&amp;Timing - ICs - Generators &amp; Synthisizers</v>
+        <v>Capacitors - Unpolarized</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="J114" t="s">
-        <v>100</v>
-      </c>
-      <c r="K114" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="P114" s="6" t="b">
         <v>1</v>
@@ -9016,15 +9046,15 @@
       </c>
       <c r="Y114" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Clock&amp;Timing - </v>
+        <v xml:space="preserve">Capacitors - </v>
       </c>
       <c r="Z114" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">ICs - </v>
+        <v>Unpolarized</v>
       </c>
       <c r="AA114" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Generators &amp; Synthisizers</v>
+        <v/>
       </c>
       <c r="AB114" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -9046,19 +9076,16 @@
     <row r="115" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H115" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Clock&amp;Timing - Oscillators  - Fixed - XO</v>
+        <v>Clock&amp;Timing - ICs - Generators &amp; Synthisizers</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>153</v>
       </c>
       <c r="J115" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="K115" t="s">
-        <v>125</v>
-      </c>
-      <c r="L115" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="P115" s="6" t="b">
         <v>1</v>
@@ -9094,15 +9121,15 @@
       </c>
       <c r="Z115" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Oscillators  - </v>
+        <v xml:space="preserve">ICs - </v>
       </c>
       <c r="AA115" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Fixed - </v>
+        <v>Generators &amp; Synthisizers</v>
       </c>
       <c r="AB115" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>XO</v>
+        <v/>
       </c>
       <c r="AC115" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -9120,13 +9147,19 @@
     <row r="116" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H116" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Barrel Jack</v>
+        <v>Clock&amp;Timing - Oscillators  - Fixed - XO</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="J116" t="s">
-        <v>196</v>
+        <v>124</v>
+      </c>
+      <c r="K116" t="s">
+        <v>125</v>
+      </c>
+      <c r="L116" t="s">
+        <v>126</v>
       </c>
       <c r="P116" s="6" t="b">
         <v>1</v>
@@ -9158,19 +9191,19 @@
       </c>
       <c r="Y116" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Connectors - </v>
+        <v xml:space="preserve">Clock&amp;Timing - </v>
       </c>
       <c r="Z116" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Barrel Jack</v>
+        <v xml:space="preserve">Oscillators  - </v>
       </c>
       <c r="AA116" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v xml:space="preserve">Fixed - </v>
       </c>
       <c r="AB116" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>XO</v>
       </c>
       <c r="AC116" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -9188,13 +9221,13 @@
     <row r="117" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H117" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - IC socket</v>
+        <v>Connectors - Barrel Jack</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J117" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P117" s="6" t="b">
         <v>1</v>
@@ -9230,7 +9263,7 @@
       </c>
       <c r="Z117" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>IC socket</v>
+        <v>Barrel Jack</v>
       </c>
       <c r="AA117" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -9256,13 +9289,13 @@
     <row r="118" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H118" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Mezzanine</v>
+        <v>Connectors - IC socket</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J118" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="P118" s="6" t="b">
         <v>1</v>
@@ -9298,7 +9331,7 @@
       </c>
       <c r="Z118" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Mezzanine</v>
+        <v>IC socket</v>
       </c>
       <c r="AA118" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -9324,16 +9357,13 @@
     <row r="119" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H119" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Pads - SMD</v>
+        <v>Connectors - Mezzanine</v>
       </c>
       <c r="I119" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
-      </c>
-      <c r="K119" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="P119" s="6" t="b">
         <v>1</v>
@@ -9369,11 +9399,11 @@
       </c>
       <c r="Z119" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Pads - </v>
+        <v>Mezzanine</v>
       </c>
       <c r="AA119" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>SMD</v>
+        <v/>
       </c>
       <c r="AB119" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -9395,7 +9425,7 @@
     <row r="120" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H120" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Pads - Through Hole</v>
+        <v>Connectors - Pads - SMD</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>34</v>
@@ -9404,7 +9434,7 @@
         <v>47</v>
       </c>
       <c r="K120" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P120" s="6" t="b">
         <v>1</v>
@@ -9444,7 +9474,7 @@
       </c>
       <c r="AA120" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Through Hole</v>
+        <v>SMD</v>
       </c>
       <c r="AB120" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -9466,13 +9496,16 @@
     <row r="121" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H121" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Programming</v>
+        <v>Connectors - Pads - Through Hole</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J121" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="K121" t="s">
+        <v>52</v>
       </c>
       <c r="P121" s="6" t="b">
         <v>1</v>
@@ -9508,11 +9541,11 @@
       </c>
       <c r="Z121" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Programming</v>
+        <v xml:space="preserve">Pads - </v>
       </c>
       <c r="AA121" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>Through Hole</v>
       </c>
       <c r="AB121" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -9534,13 +9567,13 @@
     <row r="122" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H122" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - Rectangular</v>
+        <v>Connectors - Programming</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J122" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="P122" s="6" t="b">
         <v>1</v>
@@ -9576,7 +9609,7 @@
       </c>
       <c r="Z122" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Rectangular</v>
+        <v>Programming</v>
       </c>
       <c r="AA122" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -9602,13 +9635,13 @@
     <row r="123" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H123" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - RJ</v>
+        <v>Connectors - Rectangular</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P123" s="6" t="b">
         <v>1</v>
@@ -9644,7 +9677,7 @@
       </c>
       <c r="Z123" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>RJ</v>
+        <v>Rectangular</v>
       </c>
       <c r="AA123" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -9670,13 +9703,13 @@
     <row r="124" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H124" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Connectors - USB</v>
+        <v>Connectors - RJ</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="P124" s="6" t="b">
         <v>1</v>
@@ -9712,7 +9745,7 @@
       </c>
       <c r="Z124" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>USB</v>
+        <v>RJ</v>
       </c>
       <c r="AA124" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -9738,16 +9771,13 @@
     <row r="125" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H125" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Discreet - Diodes - Schottky</v>
+        <v>Connectors - USB</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="J125" t="s">
-        <v>90</v>
-      </c>
-      <c r="K125" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="P125" s="6" t="b">
         <v>1</v>
@@ -9779,15 +9809,15 @@
       </c>
       <c r="Y125" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Discreet - </v>
+        <v xml:space="preserve">Connectors - </v>
       </c>
       <c r="Z125" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Diodes - </v>
+        <v>USB</v>
       </c>
       <c r="AA125" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Schottky</v>
+        <v/>
       </c>
       <c r="AB125" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -9809,19 +9839,16 @@
     <row r="126" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H126" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Discreet - Transistors - BJT - NPN</v>
+        <v>Discreet - Diodes - Schottky</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J126" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="K126" t="s">
-        <v>92</v>
-      </c>
-      <c r="L126" t="s">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="P126" s="6" t="b">
         <v>1</v>
@@ -9857,15 +9884,15 @@
       </c>
       <c r="Z126" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Transistors - </v>
+        <v xml:space="preserve">Diodes - </v>
       </c>
       <c r="AA126" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">BJT - </v>
+        <v>Schottky</v>
       </c>
       <c r="AB126" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>NPN</v>
+        <v/>
       </c>
       <c r="AC126" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -9883,16 +9910,19 @@
     <row r="127" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H127" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Analog - OP Amp</v>
+        <v>Discreet - Transistors - BJT - NPN</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J127" t="s">
-        <v>99</v>
+        <v>195</v>
       </c>
       <c r="K127" t="s">
-        <v>117</v>
+        <v>92</v>
+      </c>
+      <c r="L127" t="s">
+        <v>201</v>
       </c>
       <c r="P127" s="6" t="b">
         <v>1</v>
@@ -9924,19 +9954,19 @@
       </c>
       <c r="Y127" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">ICs - </v>
+        <v xml:space="preserve">Discreet - </v>
       </c>
       <c r="Z127" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Analog - </v>
+        <v xml:space="preserve">Transistors - </v>
       </c>
       <c r="AA127" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>OP Amp</v>
+        <v xml:space="preserve">BJT - </v>
       </c>
       <c r="AB127" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>NPN</v>
       </c>
       <c r="AC127" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -9954,16 +9984,16 @@
     <row r="128" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H128" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Embedded - MCU</v>
+        <v>ICs - Analog - OP Amp</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J128" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K128" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="P128" s="6" t="b">
         <v>1</v>
@@ -9999,11 +10029,11 @@
       </c>
       <c r="Z128" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Embedded - </v>
+        <v xml:space="preserve">Analog - </v>
       </c>
       <c r="AA128" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>MCU</v>
+        <v>OP Amp</v>
       </c>
       <c r="AB128" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -10025,7 +10055,7 @@
     <row r="129" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H129" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Embedded - MCU - Module</v>
+        <v>ICs - Embedded - MCU</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>100</v>
@@ -10036,9 +10066,6 @@
       <c r="K129" t="s">
         <v>107</v>
       </c>
-      <c r="L129" t="s">
-        <v>189</v>
-      </c>
       <c r="P129" s="6" t="b">
         <v>1</v>
       </c>
@@ -10077,11 +10104,11 @@
       </c>
       <c r="AA129" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">MCU - </v>
+        <v>MCU</v>
       </c>
       <c r="AB129" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Module</v>
+        <v/>
       </c>
       <c r="AC129" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -10099,16 +10126,19 @@
     <row r="130" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H130" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Power - Ideal Diodes</v>
+        <v>ICs - Embedded - MCU - Module</v>
       </c>
       <c r="I130" s="6" t="s">
         <v>100</v>
       </c>
       <c r="J130" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="K130" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="L130" t="s">
+        <v>189</v>
       </c>
       <c r="P130" s="6" t="b">
         <v>1</v>
@@ -10144,15 +10174,15 @@
       </c>
       <c r="Z130" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Power - </v>
+        <v xml:space="preserve">Embedded - </v>
       </c>
       <c r="AA130" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Ideal Diodes</v>
+        <v xml:space="preserve">MCU - </v>
       </c>
       <c r="AB130" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Module</v>
       </c>
       <c r="AC130" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -10170,7 +10200,7 @@
     <row r="131" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H131" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>ICs - Power - Linear Regulation</v>
+        <v>ICs - Power - Ideal Diodes</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>100</v>
@@ -10179,7 +10209,7 @@
         <v>88</v>
       </c>
       <c r="K131" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P131" s="6" t="b">
         <v>1</v>
@@ -10219,7 +10249,7 @@
       </c>
       <c r="AA131" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>Linear Regulation</v>
+        <v>Ideal Diodes</v>
       </c>
       <c r="AB131" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -10241,10 +10271,16 @@
     <row r="132" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H132" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Inductors</v>
+        <v>ICs - Power - Linear Regulation</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>37</v>
+        <v>100</v>
+      </c>
+      <c r="J132" t="s">
+        <v>88</v>
+      </c>
+      <c r="K132" t="s">
+        <v>103</v>
       </c>
       <c r="P132" s="6" t="b">
         <v>1</v>
@@ -10276,15 +10312,15 @@
       </c>
       <c r="Y132" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v>Inductors</v>
+        <v xml:space="preserve">ICs - </v>
       </c>
       <c r="Z132" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v/>
+        <v xml:space="preserve">Power - </v>
       </c>
       <c r="AA132" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>Linear Regulation</v>
       </c>
       <c r="AB132" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -10306,14 +10342,11 @@
     <row r="133" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H133" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Inductors - Ferrite Bead</v>
+        <v>Inductors</v>
       </c>
       <c r="I133" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J133" t="s">
-        <v>203</v>
-      </c>
       <c r="P133" s="6" t="b">
         <v>1</v>
       </c>
@@ -10344,11 +10377,11 @@
       </c>
       <c r="Y133" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Inductors - </v>
+        <v>Inductors</v>
       </c>
       <c r="Z133" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Ferrite Bead</v>
+        <v/>
       </c>
       <c r="AA133" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -10374,19 +10407,13 @@
     <row r="134" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H134" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>LEDs - Standard - Indicator - SMD</v>
+        <v>Inductors - Ferrite Bead</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="J134" t="s">
-        <v>63</v>
-      </c>
-      <c r="K134" t="s">
-        <v>151</v>
-      </c>
-      <c r="L134" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="P134" s="6" t="b">
         <v>1</v>
@@ -10418,19 +10445,19 @@
       </c>
       <c r="Y134" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">LEDs - </v>
+        <v xml:space="preserve">Inductors - </v>
       </c>
       <c r="Z134" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Standard - </v>
+        <v>Ferrite Bead</v>
       </c>
       <c r="AA134" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">Indicator - </v>
+        <v/>
       </c>
       <c r="AB134" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>SMD</v>
+        <v/>
       </c>
       <c r="AC134" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -10448,7 +10475,7 @@
     <row r="135" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H135" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>LEDs - Standard - Indicator - Through Hole</v>
+        <v>LEDs - Standard - Indicator - SMD</v>
       </c>
       <c r="I135" s="6" t="s">
         <v>152</v>
@@ -10460,7 +10487,7 @@
         <v>151</v>
       </c>
       <c r="L135" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P135" s="6" t="b">
         <v>1</v>
@@ -10504,7 +10531,7 @@
       </c>
       <c r="AB135" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Through Hole</v>
+        <v>SMD</v>
       </c>
       <c r="AC135" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -10522,13 +10549,19 @@
     <row r="136" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H136" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Mechanical  - Feet</v>
+        <v>LEDs - Standard - Indicator - Through Hole</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="J136" t="s">
-        <v>198</v>
+        <v>63</v>
+      </c>
+      <c r="K136" t="s">
+        <v>151</v>
+      </c>
+      <c r="L136" t="s">
+        <v>52</v>
       </c>
       <c r="P136" s="6" t="b">
         <v>1</v>
@@ -10560,19 +10593,19 @@
       </c>
       <c r="Y136" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Mechanical  - </v>
+        <v xml:space="preserve">LEDs - </v>
       </c>
       <c r="Z136" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Feet</v>
+        <v xml:space="preserve">Standard - </v>
       </c>
       <c r="AA136" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v xml:space="preserve">Indicator - </v>
       </c>
       <c r="AB136" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Through Hole</v>
       </c>
       <c r="AC136" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -10590,13 +10623,13 @@
     <row r="137" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H137" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Mechanical  - Screws</v>
+        <v>Mechanical  - Feet</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>133</v>
       </c>
       <c r="J137" t="s">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="P137" s="6" t="b">
         <v>1</v>
@@ -10632,7 +10665,7 @@
       </c>
       <c r="Z137" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Screws</v>
+        <v>Feet</v>
       </c>
       <c r="AA137" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -10658,13 +10691,13 @@
     <row r="138" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H138" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Protection - Fuses</v>
+        <v>Mechanical  - Screws</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="J138" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="P138" s="6" t="b">
         <v>1</v>
@@ -10696,11 +10729,11 @@
       </c>
       <c r="Y138" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Protection - </v>
+        <v xml:space="preserve">Mechanical  - </v>
       </c>
       <c r="Z138" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Fuses</v>
+        <v>Screws</v>
       </c>
       <c r="AA138" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -10726,13 +10759,13 @@
     <row r="139" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H139" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Protection - GDT</v>
+        <v>Protection - Fuses</v>
       </c>
       <c r="I139" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P139" s="6" t="b">
         <v>1</v>
@@ -10768,7 +10801,7 @@
       </c>
       <c r="Z139" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>GDT</v>
+        <v>Fuses</v>
       </c>
       <c r="AA139" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -10794,13 +10827,13 @@
     <row r="140" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H140" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Protection - MOVs</v>
+        <v>Protection - GDT</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P140" s="6" t="b">
         <v>1</v>
@@ -10836,7 +10869,7 @@
       </c>
       <c r="Z140" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>MOVs</v>
+        <v>GDT</v>
       </c>
       <c r="AA140" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -10862,13 +10895,13 @@
     <row r="141" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H141" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Protection - TVS Diode</v>
+        <v>Protection - MOVs</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J141" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="P141" s="6" t="b">
         <v>1</v>
@@ -10904,7 +10937,7 @@
       </c>
       <c r="Z141" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>TVS Diode</v>
+        <v>MOVs</v>
       </c>
       <c r="AA141" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -10930,19 +10963,13 @@
     <row r="142" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H142" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>PSUs - PCB Mount - DC-DC - Non-Isolated</v>
+        <v>Protection - TVS Diode</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="J142" t="s">
-        <v>69</v>
-      </c>
-      <c r="K142" t="s">
-        <v>83</v>
-      </c>
-      <c r="L142" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P142" s="6" t="b">
         <v>1</v>
@@ -10974,19 +11001,19 @@
       </c>
       <c r="Y142" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">PSUs - </v>
+        <v xml:space="preserve">Protection - </v>
       </c>
       <c r="Z142" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">PCB Mount - </v>
+        <v>TVS Diode</v>
       </c>
       <c r="AA142" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v xml:space="preserve">DC-DC - </v>
+        <v/>
       </c>
       <c r="AB142" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v>Non-Isolated</v>
+        <v/>
       </c>
       <c r="AC142" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -11004,13 +11031,19 @@
     <row r="143" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H143" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>PSUs - Wall Wart</v>
+        <v>PSUs - PCB Mount - DC-DC - Non-Isolated</v>
       </c>
       <c r="I143" s="6" t="s">
         <v>81</v>
       </c>
       <c r="J143" t="s">
-        <v>197</v>
+        <v>69</v>
+      </c>
+      <c r="K143" t="s">
+        <v>83</v>
+      </c>
+      <c r="L143" t="s">
+        <v>85</v>
       </c>
       <c r="P143" s="6" t="b">
         <v>1</v>
@@ -11046,15 +11079,15 @@
       </c>
       <c r="Z143" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Wall Wart</v>
+        <v xml:space="preserve">PCB Mount - </v>
       </c>
       <c r="AA143" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v xml:space="preserve">DC-DC - </v>
       </c>
       <c r="AB143" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
+        <v>Non-Isolated</v>
       </c>
       <c r="AC143" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
@@ -11072,13 +11105,13 @@
     <row r="144" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H144" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Resistors - Isolated Array</v>
+        <v>PSUs - Wall Wart</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="P144" s="6" t="b">
         <v>1</v>
@@ -11110,11 +11143,11 @@
       </c>
       <c r="Y144" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Resistors - </v>
+        <v xml:space="preserve">PSUs - </v>
       </c>
       <c r="Z144" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Isolated Array</v>
+        <v>Wall Wart</v>
       </c>
       <c r="AA144" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -11140,16 +11173,13 @@
     <row r="145" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H145" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Resistors - Single - SMD</v>
+        <v>Resistors - Isolated Array</v>
       </c>
       <c r="I145" s="6" t="s">
         <v>42</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
-      </c>
-      <c r="K145" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="P145" s="6" t="b">
         <v>1</v>
@@ -11185,11 +11215,11 @@
       </c>
       <c r="Z145" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v xml:space="preserve">Single - </v>
+        <v>Isolated Array</v>
       </c>
       <c r="AA145" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v>SMD</v>
+        <v/>
       </c>
       <c r="AB145" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -11211,13 +11241,16 @@
     <row r="146" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H146" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Switches - Push</v>
+        <v>Resistors - Single - SMD</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c r="J146" t="s">
-        <v>204</v>
+        <v>43</v>
+      </c>
+      <c r="K146" t="s">
+        <v>44</v>
       </c>
       <c r="P146" s="6" t="b">
         <v>1</v>
@@ -11249,15 +11282,15 @@
       </c>
       <c r="Y146" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Switches - </v>
+        <v xml:space="preserve">Resistors - </v>
       </c>
       <c r="Z146" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Push</v>
+        <v xml:space="preserve">Single - </v>
       </c>
       <c r="AA146" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
+        <v>SMD</v>
       </c>
       <c r="AB146" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
@@ -11279,33 +11312,33 @@
     <row r="147" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H147" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Switches - Slide</v>
+        <v>Switches - Push</v>
       </c>
       <c r="I147" s="6" t="s">
         <v>181</v>
       </c>
       <c r="J147" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="P147" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="Q147" t="b">
-        <v>1</v>
-      </c>
-      <c r="R147" t="b">
+      <c r="Q147" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="R147" s="30" t="b">
         <v>1</v>
       </c>
       <c r="S147" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="T147" t="b">
-        <v>1</v>
-      </c>
-      <c r="U147" t="b">
-        <v>1</v>
-      </c>
-      <c r="V147" t="b">
+      <c r="T147" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="U147" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="V147" s="30" t="b">
         <v>1</v>
       </c>
       <c r="W147">
@@ -11321,7 +11354,7 @@
       </c>
       <c r="Z147" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Slide</v>
+        <v>Push</v>
       </c>
       <c r="AA147" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -11347,13 +11380,13 @@
     <row r="148" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H148" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Switches - Tactile</v>
+        <v>Switches - Slide</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>181</v>
       </c>
       <c r="J148" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="P148" s="6" t="b">
         <v>1</v>
@@ -11389,7 +11422,7 @@
       </c>
       <c r="Z148" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Tactile</v>
+        <v>Slide</v>
       </c>
       <c r="AA148" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -11415,13 +11448,13 @@
     <row r="149" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H149" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Thermal - Heat Sinks</v>
+        <v>Switches - Tactile</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="P149" s="6" t="b">
         <v>1</v>
@@ -11453,11 +11486,11 @@
       </c>
       <c r="Y149" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
-        <v xml:space="preserve">Thermal - </v>
+        <v xml:space="preserve">Switches - </v>
       </c>
       <c r="Z149" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Heat Sinks</v>
+        <v>Tactile</v>
       </c>
       <c r="AA149" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -11483,13 +11516,13 @@
     <row r="150" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H150" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Thermal - Pads</v>
+        <v>Thermal - Heat Sinks</v>
       </c>
       <c r="I150" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P150" s="6" t="b">
         <v>1</v>
@@ -11525,7 +11558,7 @@
       </c>
       <c r="Z150" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
-        <v>Pads</v>
+        <v>Heat Sinks</v>
       </c>
       <c r="AA150" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
@@ -11551,13 +11584,13 @@
     <row r="151" spans="8:31" x14ac:dyDescent="0.35">
       <c r="H151" t="str">
         <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
-        <v>Voltage References - Burried Zener</v>
+        <v>Thermal - Pads</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="J151" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="P151" s="6" t="b">
         <v>1</v>
@@ -11589,29 +11622,97 @@
       </c>
       <c r="Y151" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
+        <v xml:space="preserve">Thermal - </v>
+      </c>
+      <c r="Z151" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
+        <v>Pads</v>
+      </c>
+      <c r="AA151" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
+        <v/>
+      </c>
+      <c r="AB151" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
+        <v/>
+      </c>
+      <c r="AC151" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
+        <v/>
+      </c>
+      <c r="AD151" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
+        <v/>
+      </c>
+      <c r="AE151" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,Table1[[#This Row],[Part 7]],"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="8:31" x14ac:dyDescent="0.35">
+      <c r="H152" t="str">
+        <f>_xlfn.CONCAT(Table1[[#This Row],[Eff pt 1]:[Eff pt 7]])</f>
+        <v>Voltage References - Burried Zener</v>
+      </c>
+      <c r="I152" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J152" t="s">
+        <v>186</v>
+      </c>
+      <c r="P152" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q152" t="b">
+        <v>1</v>
+      </c>
+      <c r="R152" t="b">
+        <v>1</v>
+      </c>
+      <c r="S152" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T152" t="b">
+        <v>1</v>
+      </c>
+      <c r="U152" t="b">
+        <v>1</v>
+      </c>
+      <c r="V152" t="b">
+        <v>1</v>
+      </c>
+      <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152" s="6">
+        <f>(COUNTIF(Table1[[#This Row],[Spreadsheet]:[Functionality Verified?]],"=TRUE")/7) * 100</f>
+        <v>100</v>
+      </c>
+      <c r="Y152" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 1]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 1]])=0,Table1[[#This Row],[Part 1]],""))</f>
         <v xml:space="preserve">Voltage References - </v>
       </c>
-      <c r="Z151" t="str">
+      <c r="Z152" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 2]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 2]])=0,Table1[[#This Row],[Part 2]],""))</f>
         <v>Burried Zener</v>
       </c>
-      <c r="AA151" t="str">
-        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
-        <v/>
-      </c>
-      <c r="AB151" t="str">
-        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
-        <v/>
-      </c>
-      <c r="AC151" t="str">
-        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
-        <v/>
-      </c>
-      <c r="AD151" t="str">
-        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
-        <v/>
-      </c>
-      <c r="AE151" t="str">
+      <c r="AA152" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 3]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 3]])=0,Table1[[#This Row],[Part 3]],""))</f>
+        <v/>
+      </c>
+      <c r="AB152" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 4]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 4]])=0,Table1[[#This Row],[Part 4]],""))</f>
+        <v/>
+      </c>
+      <c r="AC152" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 5]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 5]])=0,Table1[[#This Row],[Part 5]],""))</f>
+        <v/>
+      </c>
+      <c r="AD152" t="str">
+        <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,_xlfn.CONCAT(Table1[[#This Row],[Part 6]]," - "),IF(COUNTBLANK(Table1[[#This Row],[Part 6]])=0,Table1[[#This Row],[Part 6]],""))</f>
+        <v/>
+      </c>
+      <c r="AE152" t="str">
         <f>IF(COUNTBLANK(Table1[[#This Row],[Part 7]])=0,Table1[[#This Row],[Part 7]],"")</f>
         <v/>
       </c>
@@ -11630,35 +11731,35 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H151">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="H12:H152">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>IF($W12 = -1, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:O9999">
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="7" priority="36">
       <formula>IF($W12 &gt;= $E$18, 1, 0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:V151">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="TRALSE">
+  <conditionalFormatting sqref="P12:V152">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="TRALSE">
       <formula>NOT(ISERROR(SEARCH("TRALSE",P12)))</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="5" stopIfTrue="1">
       <formula>LEN(TRIM(P12))=0</formula>
     </cfRule>
-    <cfRule type="notContainsText" dxfId="1" priority="6" operator="notContains" text="TRUE">
+    <cfRule type="notContainsText" dxfId="5" priority="6" operator="notContains" text="TRUE">
       <formula>ISERROR(SEARCH("TRUE",P12))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="TRUE">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="TRUE">
       <formula>NOT(ISERROR(SEARCH("TRUE",P12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12:W151">
+  <conditionalFormatting sqref="W12:W152">
     <cfRule type="cellIs" priority="77" stopIfTrue="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -11671,7 +11772,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12:X151">
+  <conditionalFormatting sqref="X12:X152">
     <cfRule type="expression" priority="9" stopIfTrue="1">
       <formula>IF(COUNTA(P12:W12)&gt;0,0,1)</formula>
     </cfRule>
